--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E02737DE-0688-4603-A070-5F98E8FC6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD8D662-5DC0-46E7-8EE9-14004B5ACBEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E4C1C4-62EC-40C0-90F1-83D06AD23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>General Information Services dba HireRight</t>
+  </si>
+  <si>
+    <t>Multi Color Corporation</t>
+  </si>
+  <si>
+    <t>S&amp;B Fabrication Services,Ltd.</t>
+  </si>
+  <si>
+    <t>Chambers</t>
+  </si>
+  <si>
+    <t>Baytown</t>
   </si>
 </sst>
 </file>
@@ -691,25 +703,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,64 +747,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11">
+        <v>83</v>
+      </c>
+      <c r="F2" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G2" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44747</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9">
+        <v>44740</v>
+      </c>
+      <c r="G3" s="9">
+        <v>44747</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>44743</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>313</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44786</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44742</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>44740</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -801,258 +813,258 @@
         <v>18</v>
       </c>
       <c r="E4" s="5">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="G4" s="3">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44736</v>
+        <v>44742</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
+        <v>313</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44786</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44742</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44741</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
         <v>428</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F7" s="3">
         <v>44736</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>44729</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44564</v>
       </c>
       <c r="G7" s="3">
         <v>44739</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44794</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>44718</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>45</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>44738</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="3">
         <v>44720</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>44718</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E11" s="5">
         <v>85</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <v>44738</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="3">
         <v>44720</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>44693</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E12" s="7">
         <v>81</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F12" s="8">
         <v>44756</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G12" s="8">
         <v>44693</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>44678</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E13" s="11">
         <v>202</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F13" s="9">
         <v>44736</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G13" s="9">
         <v>44684</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G12" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44635</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -1061,7 +1073,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3">
         <v>44651</v>
@@ -1073,12 +1085,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44635</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
@@ -1087,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3">
         <v>44651</v>
@@ -1099,211 +1111,263 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>44648</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="5">
         <v>122</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F18" s="3">
         <v>44712</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G18" s="3">
         <v>44652</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>44628</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E19" s="5">
         <v>109</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F19" s="3">
         <v>44687</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G19" s="3">
         <v>44635</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>44627</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E20" s="5">
         <v>62</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F20" s="3">
         <v>44627</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G20" s="3">
         <v>44642</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>44621</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E21" s="5">
         <v>206</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F21" s="3">
         <v>44682</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G21" s="3">
         <v>44621</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>44607</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E22" s="5">
         <v>84</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F22" s="3">
         <v>44669</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G22" s="3">
         <v>44607</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>44589</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E23" s="5">
         <v>178</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F23" s="3">
         <v>44647</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G23" s="3">
         <v>44589</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>44585</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E24" s="11">
         <v>80</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F24" s="9">
         <v>44572</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G24" s="9">
         <v>44585</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>44567</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E25" s="5">
         <v>348</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F25" s="3">
         <v>44633</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G25" s="3">
         <v>44567</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Internet\Webwork\Working Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E4C1C4-62EC-40C0-90F1-83D06AD23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA8CF3E1-407E-4B52-97E3-D5FDF56B895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="4170" yWindow="1635" windowWidth="21750" windowHeight="12900" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -251,6 +251,57 @@
   </si>
   <si>
     <t>Baytown</t>
+  </si>
+  <si>
+    <t>Food City Supermarkets</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Borderplexjobs WDA</t>
+  </si>
+  <si>
+    <t>Captel Service Specialists, LLC</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Pearl South Padre Island Hotel and Resort</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Cameron County WDA</t>
+  </si>
+  <si>
+    <t>South Padre Is.</t>
+  </si>
+  <si>
+    <t>Seville Farms @ Los Fresnos</t>
+  </si>
+  <si>
+    <t>Los Fresnos</t>
+  </si>
+  <si>
+    <t>Seville Farms @ Tyler</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>East Texas WDA</t>
+  </si>
+  <si>
+    <t>Winona</t>
+  </si>
+  <si>
+    <t>Seville Farms @ Mansfield</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
   </si>
 </sst>
 </file>
@@ -282,6 +333,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -703,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,626 +800,782 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="A2" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G2" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>44747</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="11">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9">
-        <v>44740</v>
-      </c>
-      <c r="G3" s="9">
-        <v>44747</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>17</v>
+      <c r="C3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44743</v>
+        <v>44767</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3">
-        <v>44805</v>
+        <v>44762</v>
       </c>
       <c r="G4" s="3">
-        <v>44743</v>
+        <v>44767</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44742</v>
+        <v>44761</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="F5" s="3">
-        <v>44786</v>
+        <v>44822</v>
       </c>
       <c r="G5" s="3">
-        <v>44742</v>
+        <v>44763</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44740</v>
+        <v>44762</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3">
-        <v>44774</v>
+        <v>44824</v>
       </c>
       <c r="G6" s="3">
-        <v>44741</v>
+        <v>44762</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44736</v>
+        <v>44761</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E7" s="5">
-        <v>428</v>
+        <v>90</v>
       </c>
       <c r="F7" s="3">
-        <v>44736</v>
+        <v>44807</v>
       </c>
       <c r="G7" s="3">
-        <v>44739</v>
+        <v>44761</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
+      <c r="A8" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11">
+        <v>83</v>
+      </c>
+      <c r="F8" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G8" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>44729</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="9">
+        <v>44747</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3">
-        <v>44564</v>
-      </c>
-      <c r="G9" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
+      <c r="E9" s="11">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9">
+        <v>44740</v>
+      </c>
+      <c r="G9" s="9">
+        <v>44747</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44718</v>
+        <v>44743</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3">
-        <v>44738</v>
+        <v>44805</v>
       </c>
       <c r="G10" s="3">
-        <v>44720</v>
+        <v>44743</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44718</v>
+        <v>44742</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="F11" s="3">
-        <v>44738</v>
+        <v>44786</v>
       </c>
       <c r="G11" s="3">
-        <v>44720</v>
+        <v>44742</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44693</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7">
-        <v>81</v>
-      </c>
-      <c r="F12" s="8">
-        <v>44756</v>
-      </c>
-      <c r="G12" s="8">
-        <v>44693</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>28</v>
+      <c r="A12" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>143</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44741</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>44678</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="11">
-        <v>202</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="A13" s="3">
         <v>44736</v>
       </c>
-      <c r="G13" s="9">
-        <v>44684</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>23</v>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>428</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44736</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44635</v>
+        <v>44735</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3">
-        <v>44651</v>
+        <v>44794</v>
       </c>
       <c r="G14" s="3">
-        <v>44657</v>
+        <v>44739</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44635</v>
+        <v>44729</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5">
         <v>32</v>
       </c>
-      <c r="E15" s="5">
-        <v>26</v>
-      </c>
       <c r="F15" s="3">
-        <v>44651</v>
+        <v>44564</v>
       </c>
       <c r="G15" s="3">
-        <v>44657</v>
+        <v>44739</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44635</v>
+        <v>44718</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
-        <v>44651</v>
+        <v>44738</v>
       </c>
       <c r="G16" s="3">
-        <v>44657</v>
+        <v>44720</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44635</v>
+        <v>44718</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3">
-        <v>44651</v>
+        <v>44738</v>
       </c>
       <c r="G17" s="3">
-        <v>44657</v>
+        <v>44720</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44648</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="5">
-        <v>122</v>
-      </c>
-      <c r="F18" s="3">
-        <v>44712</v>
-      </c>
-      <c r="G18" s="3">
-        <v>44652</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44628</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="5">
-        <v>109</v>
-      </c>
-      <c r="F19" s="3">
-        <v>44687</v>
-      </c>
-      <c r="G19" s="3">
-        <v>44635</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>43</v>
+      <c r="A18" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7">
+        <v>81</v>
+      </c>
+      <c r="F18" s="8">
+        <v>44756</v>
+      </c>
+      <c r="G18" s="8">
+        <v>44693</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>44678</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="11">
+        <v>202</v>
+      </c>
+      <c r="F19" s="9">
+        <v>44736</v>
+      </c>
+      <c r="G19" s="9">
+        <v>44684</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3">
-        <v>44627</v>
+        <v>44651</v>
       </c>
       <c r="G20" s="3">
-        <v>44642</v>
+        <v>44657</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44621</v>
+        <v>44635</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3">
-        <v>44682</v>
+        <v>44651</v>
       </c>
       <c r="G21" s="3">
-        <v>44621</v>
+        <v>44657</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3">
-        <v>44669</v>
+        <v>44651</v>
       </c>
       <c r="G22" s="3">
-        <v>44607</v>
+        <v>44657</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="5">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44712</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44652</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5">
+        <v>109</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="5">
+        <v>62</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44627</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44642</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="5">
+        <v>206</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44607</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="5">
+        <v>84</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44669</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44607</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>44589</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E29" s="5">
         <v>178</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F29" s="3">
         <v>44647</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G29" s="3">
         <v>44589</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>44585</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E30" s="11">
         <v>80</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F30" s="9">
         <v>44572</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G30" s="9">
         <v>44585</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>44567</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E31" s="5">
         <v>348</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F31" s="3">
         <v>44633</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G31" s="3">
         <v>44567</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Internet\Webwork\Working Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA8CF3E1-407E-4B52-97E3-D5FDF56B895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E67F8D-EF19-4D9D-A786-6AB13BD0A468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1635" windowWidth="21750" windowHeight="12900" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="2580" yWindow="1605" windowWidth="21750" windowHeight="12900" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -302,13 +302,34 @@
   </si>
   <si>
     <t>Mansfield</t>
+  </si>
+  <si>
+    <t>ION Geophysical Corporation</t>
+  </si>
+  <si>
+    <t>F 45 Training Inc.</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Capital Area WDA</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Plano Enterprise Mobility Facility</t>
+  </si>
+  <si>
+    <t>GXO Logistics of Texas, LLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +355,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -405,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +467,15 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,782 +835,886 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="13">
+        <v>44770</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5">
-        <v>64</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>88</v>
+      <c r="E2" s="15">
+        <v>116</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44834</v>
+      </c>
+      <c r="G2" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="5">
-        <v>72</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>86</v>
+      <c r="A3" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <v>69</v>
+      </c>
+      <c r="F3" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G3" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="13">
+        <v>44768</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="15">
         <v>78</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="5">
-        <v>92</v>
-      </c>
-      <c r="F4" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>82</v>
+      <c r="F4" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G4" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44761</v>
+        <v>44767</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3">
-        <v>44822</v>
+        <v>44762</v>
       </c>
       <c r="G5" s="3">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="5">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3">
         <v>44762</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5">
-        <v>110</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44824</v>
-      </c>
       <c r="G6" s="3">
-        <v>44762</v>
+        <v>44767</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="5">
+        <v>92</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>44761</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="5">
-        <v>90</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="B8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15">
+        <v>125</v>
+      </c>
+      <c r="F8" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G8" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>44761</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11">
-        <v>83</v>
-      </c>
-      <c r="F8" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G8" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>44747</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45</v>
-      </c>
-      <c r="F9" s="9">
-        <v>44740</v>
-      </c>
-      <c r="G9" s="9">
-        <v>44747</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="5">
+        <v>115</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44763</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44743</v>
+        <v>44762</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3">
-        <v>44805</v>
+        <v>44824</v>
       </c>
       <c r="G10" s="3">
-        <v>44743</v>
+        <v>44762</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44742</v>
+        <v>44761</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3">
-        <v>44786</v>
+        <v>44807</v>
       </c>
       <c r="G11" s="3">
-        <v>44742</v>
+        <v>44761</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G12" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44747</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9">
         <v>44740</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="G13" s="9">
+        <v>44747</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
-        <v>143</v>
-      </c>
-      <c r="F12" s="3">
-        <v>44774</v>
-      </c>
-      <c r="G12" s="3">
-        <v>44741</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44736</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>428</v>
-      </c>
-      <c r="F13" s="3">
-        <v>44736</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44735</v>
+        <v>44743</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3">
-        <v>44794</v>
+        <v>44805</v>
       </c>
       <c r="G14" s="3">
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44729</v>
+        <v>44742</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="F15" s="3">
-        <v>44564</v>
+        <v>44786</v>
       </c>
       <c r="G15" s="3">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44718</v>
+        <v>44740</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="F16" s="3">
-        <v>44738</v>
+        <v>44774</v>
       </c>
       <c r="G16" s="3">
-        <v>44720</v>
+        <v>44741</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44718</v>
+        <v>44736</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="F17" s="3">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="G17" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>44693</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="7">
-        <v>81</v>
-      </c>
-      <c r="F18" s="8">
-        <v>44756</v>
-      </c>
-      <c r="G18" s="8">
-        <v>44693</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>28</v>
+      <c r="A18" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44794</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>44678</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="11">
-        <v>202</v>
-      </c>
-      <c r="F19" s="9">
-        <v>44736</v>
-      </c>
-      <c r="G19" s="9">
-        <v>44684</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>23</v>
+      <c r="A19" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44635</v>
+        <v>44718</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3">
-        <v>44651</v>
+        <v>44738</v>
       </c>
       <c r="G20" s="3">
-        <v>44657</v>
+        <v>44720</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44635</v>
+        <v>44718</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G21" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="5">
-        <v>18</v>
-      </c>
-      <c r="F22" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G22" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>33</v>
+      <c r="D22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7">
+        <v>81</v>
+      </c>
+      <c r="F22" s="8">
+        <v>44756</v>
+      </c>
+      <c r="G22" s="8">
+        <v>44693</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5">
-        <v>19</v>
-      </c>
-      <c r="F23" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G23" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>33</v>
+      <c r="A23" s="9">
+        <v>44678</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11">
+        <v>202</v>
+      </c>
+      <c r="F23" s="9">
+        <v>44736</v>
+      </c>
+      <c r="G23" s="9">
+        <v>44684</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44648</v>
+        <v>44635</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3">
-        <v>44712</v>
+        <v>44651</v>
       </c>
       <c r="G24" s="3">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44628</v>
+        <v>44635</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="F25" s="3">
-        <v>44687</v>
+        <v>44651</v>
       </c>
       <c r="G25" s="3">
-        <v>44635</v>
+        <v>44657</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5">
+        <v>19</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="5">
+        <v>122</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44712</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44652</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="5">
+        <v>109</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>44627</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E30" s="5">
         <v>62</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F30" s="3">
         <v>44627</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G30" s="3">
         <v>44642</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>44621</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E31" s="5">
         <v>206</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F31" s="3">
         <v>44682</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G31" s="3">
         <v>44621</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>44607</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E32" s="5">
         <v>84</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F32" s="3">
         <v>44669</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G32" s="3">
         <v>44607</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>44589</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E33" s="5">
         <v>178</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F33" s="3">
         <v>44647</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G33" s="3">
         <v>44589</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>44585</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E34" s="11">
         <v>80</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F34" s="9">
         <v>44572</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G34" s="9">
         <v>44585</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>44567</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E35" s="5">
         <v>348</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F35" s="3">
         <v>44633</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G35" s="3">
         <v>44567</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Internet\Webwork\Working Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E67F8D-EF19-4D9D-A786-6AB13BD0A468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{41E4C1C4-62EC-40C0-90F1-83D06AD23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D7BCEB9-C511-496D-BD1B-5530AC665F9D}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1605" windowWidth="21750" windowHeight="12900" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="5415" yWindow="4425" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>GXO Logistics of Texas, LLC</t>
+  </si>
+  <si>
+    <t>Signify Health LLC - Dallas</t>
+  </si>
+  <si>
+    <t>Signify Health LLC - Austin</t>
   </si>
 </sst>
 </file>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,133 +841,133 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="15">
-        <v>116</v>
-      </c>
-      <c r="F2" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G2" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>23</v>
+      <c r="A2" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15">
-        <v>69</v>
-      </c>
-      <c r="F3" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G3" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>11</v>
+      <c r="A3" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44768</v>
+        <v>44770</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E4" s="15">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F4" s="13">
-        <v>44829</v>
+        <v>44834</v>
       </c>
       <c r="G4" s="13">
         <v>44770</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15">
+        <v>69</v>
+      </c>
+      <c r="F5" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G5" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44768</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="15">
+        <v>78</v>
+      </c>
+      <c r="F6" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5">
-        <v>64</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="5">
-        <v>72</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -969,16 +975,16 @@
         <v>44767</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3">
         <v>44762</v>
@@ -987,41 +993,41 @@
         <v>44767</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>44761</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="15">
-        <v>125</v>
-      </c>
-      <c r="F8" s="13">
-        <v>44804</v>
-      </c>
-      <c r="G8" s="13">
-        <v>44768</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>33</v>
+      <c r="A8" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="5">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44761</v>
+        <v>44767</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>78</v>
@@ -1030,42 +1036,42 @@
         <v>79</v>
       </c>
       <c r="E9" s="5">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3">
-        <v>44822</v>
+        <v>44762</v>
       </c>
       <c r="G9" s="3">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44762</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5">
-        <v>110</v>
-      </c>
-      <c r="F10" s="3">
-        <v>44824</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44762</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>76</v>
+      <c r="A10" s="13">
+        <v>44761</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15">
+        <v>125</v>
+      </c>
+      <c r="F10" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G10" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,137 +1079,137 @@
         <v>44761</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="5">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44763</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5">
+        <v>110</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E13" s="5">
         <v>90</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
         <v>44807</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G13" s="3">
         <v>44761</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>44748</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="11">
         <v>83</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F14" s="9">
         <v>44812</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G14" s="9">
         <v>44755</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>44747</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E15" s="11">
         <v>45</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F15" s="9">
         <v>44740</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G15" s="9">
         <v>44747</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G14" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>313</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44786</v>
-      </c>
-      <c r="G15" s="3">
-        <v>44742</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44740</v>
+        <v>44743</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1212,250 +1218,250 @@
         <v>18</v>
       </c>
       <c r="E16" s="5">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="G16" s="3">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44736</v>
+        <v>44742</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="5">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="F17" s="3">
-        <v>44736</v>
+        <v>44786</v>
       </c>
       <c r="G17" s="3">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44735</v>
+        <v>44740</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18" s="5">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="F18" s="3">
-        <v>44794</v>
+        <v>44774</v>
       </c>
       <c r="G18" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44729</v>
+        <v>44736</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
-        <v>32</v>
+        <v>428</v>
       </c>
       <c r="F19" s="3">
-        <v>44564</v>
+        <v>44736</v>
       </c>
       <c r="G19" s="3">
         <v>44739</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44718</v>
+        <v>44735</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3">
-        <v>44738</v>
+        <v>44794</v>
       </c>
       <c r="G20" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>44718</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E23" s="5">
         <v>85</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F23" s="3">
         <v>44738</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G23" s="3">
         <v>44720</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>44693</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E24" s="7">
         <v>81</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F24" s="8">
         <v>44756</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G24" s="8">
         <v>44693</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>44678</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E25" s="11">
         <v>202</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F25" s="9">
         <v>44736</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G25" s="9">
         <v>44684</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5">
-        <v>31</v>
-      </c>
-      <c r="F24" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G24" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="5">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G25" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,7 +1469,7 @@
         <v>44635</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1472,7 +1478,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F26" s="3">
         <v>44651</v>
@@ -1489,7 +1495,7 @@
         <v>44635</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>31</v>
@@ -1498,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F27" s="3">
         <v>44651</v>
@@ -1512,209 +1518,261 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44648</v>
+        <v>44635</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3">
-        <v>44712</v>
+        <v>44651</v>
       </c>
       <c r="G28" s="3">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44628</v>
+        <v>44635</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F29" s="3">
-        <v>44687</v>
+        <v>44651</v>
       </c>
       <c r="G29" s="3">
-        <v>44635</v>
+        <v>44657</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E30" s="5">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F30" s="3">
-        <v>44627</v>
+        <v>44712</v>
       </c>
       <c r="G30" s="3">
-        <v>44642</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5">
+        <v>109</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="5">
+        <v>62</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44627</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44642</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>44621</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E33" s="5">
         <v>206</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F33" s="3">
         <v>44682</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G33" s="3">
         <v>44621</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>44607</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E34" s="5">
         <v>84</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F34" s="3">
         <v>44669</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G34" s="3">
         <v>44607</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>44589</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="5">
-        <v>178</v>
-      </c>
-      <c r="F33" s="3">
-        <v>44647</v>
-      </c>
-      <c r="G33" s="3">
-        <v>44589</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>44585</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="11">
-        <v>80</v>
-      </c>
-      <c r="F34" s="9">
-        <v>44572</v>
-      </c>
-      <c r="G34" s="9">
-        <v>44585</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="5">
+        <v>178</v>
+      </c>
+      <c r="F35" s="3">
+        <v>44647</v>
+      </c>
+      <c r="G35" s="3">
+        <v>44589</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>44585</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="11">
+        <v>80</v>
+      </c>
+      <c r="F36" s="9">
+        <v>44572</v>
+      </c>
+      <c r="G36" s="9">
+        <v>44585</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>44567</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E37" s="5">
         <v>348</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F37" s="3">
         <v>44633</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G37" s="3">
         <v>44567</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{41E4C1C4-62EC-40C0-90F1-83D06AD23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D7BCEB9-C511-496D-BD1B-5530AC665F9D}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{41E4C1C4-62EC-40C0-90F1-83D06AD23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADD469A-9EEB-4AC0-BB22-22E6E2A89B32}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="4425" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="32460" yWindow="2220" windowWidth="21600" windowHeight="11280" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Signify Health LLC - Austin</t>
+  </si>
+  <si>
+    <t>Spirit Airlines</t>
   </si>
 </sst>
 </file>
@@ -796,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,45 +845,45 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F2" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G2" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>44835</v>
@@ -889,111 +892,111 @@
         <v>44783</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="15">
-        <v>116</v>
-      </c>
-      <c r="F4" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G4" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>23</v>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="15">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F5" s="13">
-        <v>44867</v>
+        <v>44834</v>
       </c>
       <c r="G5" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15">
+        <v>69</v>
+      </c>
+      <c r="F6" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>44768</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="15">
         <v>78</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>44829</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>44770</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5">
-        <v>64</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,16 +1004,16 @@
         <v>44767</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3">
         <v>44762</v>
@@ -1019,7 +1022,7 @@
         <v>44767</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,16 +1030,16 @@
         <v>44767</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E9" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3">
         <v>44762</v>
@@ -1045,345 +1048,345 @@
         <v>44767</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="5">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>44761</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>125</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>44804</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>44768</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="5">
-        <v>115</v>
-      </c>
-      <c r="F11" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E12" s="5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F12" s="3">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="G12" s="3">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5">
+        <v>110</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>44761</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <v>90</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>44807</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>44761</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="11">
-        <v>83</v>
-      </c>
-      <c r="F14" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G14" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="11">
+        <v>83</v>
+      </c>
+      <c r="F15" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G15" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>44747</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>45</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>44740</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>44747</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G16" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3">
-        <v>44786</v>
+        <v>44805</v>
       </c>
       <c r="G17" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="F18" s="3">
-        <v>44774</v>
+        <v>44786</v>
       </c>
       <c r="G18" s="3">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="5">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="F19" s="3">
-        <v>44736</v>
+        <v>44774</v>
       </c>
       <c r="G19" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="F20" s="3">
-        <v>44794</v>
+        <v>44736</v>
       </c>
       <c r="G20" s="3">
         <v>44739</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F21" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G21" s="3">
         <v>44739</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44718</v>
+        <v>44729</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3">
-        <v>44738</v>
+        <v>44564</v>
       </c>
       <c r="G22" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1391,7 +1394,7 @@
         <v>44718</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -1400,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3">
         <v>44738</v>
@@ -1413,81 +1416,81 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5">
+        <v>85</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>44693</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>81</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>44756</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>44693</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>44678</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>202</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>44736</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>44684</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="5">
-        <v>31</v>
-      </c>
-      <c r="F26" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G26" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1498,7 @@
         <v>44635</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>31</v>
@@ -1504,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F27" s="3">
         <v>44651</v>
@@ -1521,7 +1524,7 @@
         <v>44635</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1530,7 +1533,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F28" s="3">
         <v>44651</v>
@@ -1547,7 +1550,7 @@
         <v>44635</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1556,7 +1559,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3">
         <v>44651</v>
@@ -1570,209 +1573,235 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="5">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>44648</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="5">
         <v>122</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <v>44712</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>44652</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>44628</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>109</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>44687</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="3">
         <v>44635</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>44627</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>62</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>44627</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>44642</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>44621</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="5">
-        <v>206</v>
-      </c>
-      <c r="F33" s="3">
-        <v>44682</v>
-      </c>
-      <c r="G33" s="3">
-        <v>44621</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="5">
+        <v>206</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>44607</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>84</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>44669</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>44607</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>44589</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>178</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="3">
         <v>44647</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="3">
         <v>44589</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>44585</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>80</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>44572</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>44585</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>44567</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <v>348</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <v>44633</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="3">
         <v>44567</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/ronnie_burchett_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{41E4C1C4-62EC-40C0-90F1-83D06AD23C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADD469A-9EEB-4AC0-BB22-22E6E2A89B32}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4BCE3F2E-369C-4696-97A1-E6FD1CF2F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA23BFE-70F3-42AA-AC6F-B3313A66DB9B}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="2220" windowWidth="21600" windowHeight="11280" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="57765" yWindow="345" windowWidth="28770" windowHeight="13680" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="111">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -332,6 +331,42 @@
   </si>
   <si>
     <t>Spirit Airlines</t>
+  </si>
+  <si>
+    <t>ASARCO Amarillo Refinery</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Panhandle WDA</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Merit Medical Systems, Inc.</t>
+  </si>
+  <si>
+    <t>ABM Industries - 902</t>
+  </si>
+  <si>
+    <t>ABM Industries - 909</t>
+  </si>
+  <si>
+    <t>ABM Industries - 920</t>
+  </si>
+  <si>
+    <t>ABM Industries - 915 Gessner</t>
+  </si>
+  <si>
+    <t>ABM Industries - 1120</t>
+  </si>
+  <si>
+    <t>ABM Industries - 1140</t>
+  </si>
+  <si>
+    <t>Southern Star Express, LLC (DDF8)</t>
   </si>
 </sst>
 </file>
@@ -799,25 +834,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.1796875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,965 +878,1199 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44862</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5">
+        <v>117</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44827</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44797</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44833</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>44792</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E11" s="5">
         <v>134</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F11" s="3">
         <v>44834</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G11" s="3">
         <v>44792</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>44783</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E12" s="5">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F12" s="3">
         <v>44835</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G12" s="3">
         <v>44783</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>44782</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E13" s="5">
         <v>29</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F13" s="3">
         <v>44835</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G13" s="3">
         <v>44783</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
         <v>44770</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E14" s="15">
         <v>116</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F14" s="13">
         <v>44834</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G14" s="13">
         <v>44770</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
         <v>44769</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B15" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E15" s="15">
         <v>69</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F15" s="13">
         <v>44867</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G15" s="13">
         <v>44769</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
         <v>44768</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E16" s="15">
         <v>78</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F16" s="13">
         <v>44829</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G16" s="13">
         <v>44770</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>44767</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E17" s="5">
         <v>64</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F17" s="3">
         <v>44762</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G17" s="3">
         <v>44767</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>44767</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E18" s="5">
         <v>72</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F18" s="3">
         <v>44762</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G18" s="3">
         <v>44767</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>44767</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E19" s="5">
         <v>92</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F19" s="3">
         <v>44762</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G19" s="3">
         <v>44767</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
         <v>44761</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E20" s="15">
         <v>125</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F20" s="13">
         <v>44804</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G20" s="13">
         <v>44768</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>44761</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E21" s="5">
         <v>115</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F21" s="3">
         <v>44822</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G21" s="3">
         <v>44763</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>44762</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E22" s="5">
         <v>110</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F22" s="3">
         <v>44824</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G22" s="3">
         <v>44762</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>44761</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E23" s="5">
         <v>90</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F23" s="3">
         <v>44807</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G23" s="3">
         <v>44761</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
         <v>44748</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E24" s="11">
         <v>83</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F24" s="9">
         <v>44812</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G24" s="9">
         <v>44755</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <v>44747</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E25" s="11">
         <v>45</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F25" s="9">
         <v>44740</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G25" s="9">
         <v>44747</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>44743</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E26" s="5">
         <v>36</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F26" s="3">
         <v>44805</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G26" s="3">
         <v>44743</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>44742</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E27" s="5">
         <v>313</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F27" s="3">
         <v>44786</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G27" s="3">
         <v>44742</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>44740</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E28" s="5">
         <v>143</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F28" s="3">
         <v>44774</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G28" s="3">
         <v>44741</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>44736</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E29" s="5">
         <v>428</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F29" s="3">
         <v>44736</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G29" s="3">
         <v>44739</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>44735</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E30" s="5">
         <v>47</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F30" s="3">
         <v>44794</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G30" s="3">
         <v>44739</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>44729</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E31" s="5">
         <v>32</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F31" s="3">
         <v>44564</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G31" s="3">
         <v>44739</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>44718</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E32" s="5">
         <v>45</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F32" s="3">
         <v>44738</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G32" s="3">
         <v>44720</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>44718</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E33" s="5">
         <v>85</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F33" s="3">
         <v>44738</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G33" s="3">
         <v>44720</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
         <v>44693</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E34" s="7">
         <v>81</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F34" s="8">
         <v>44756</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G34" s="8">
         <v>44693</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
         <v>44678</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E35" s="11">
         <v>202</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F35" s="9">
         <v>44736</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G35" s="9">
         <v>44684</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>44635</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E36" s="5">
         <v>31</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F36" s="3">
         <v>44651</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G36" s="3">
         <v>44657</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>44635</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E37" s="5">
         <v>26</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F37" s="3">
         <v>44651</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G37" s="3">
         <v>44657</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>44635</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E38" s="5">
         <v>18</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F38" s="3">
         <v>44651</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G38" s="3">
         <v>44657</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>44635</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E39" s="5">
         <v>19</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F39" s="3">
         <v>44651</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G39" s="3">
         <v>44657</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>44648</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E40" s="5">
         <v>122</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F40" s="3">
         <v>44712</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G40" s="3">
         <v>44652</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>44628</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E41" s="5">
         <v>109</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F41" s="3">
         <v>44687</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G41" s="3">
         <v>44635</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>44627</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E42" s="5">
         <v>62</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F42" s="3">
         <v>44627</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G42" s="3">
         <v>44642</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>44621</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E43" s="5">
         <v>206</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F43" s="3">
         <v>44682</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G43" s="3">
         <v>44621</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>44607</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E44" s="5">
         <v>84</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F44" s="3">
         <v>44669</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G44" s="3">
         <v>44607</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>44589</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E45" s="5">
         <v>178</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F45" s="3">
         <v>44647</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G45" s="3">
         <v>44589</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
         <v>44585</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E46" s="11">
         <v>80</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F46" s="9">
         <v>44572</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G46" s="9">
         <v>44585</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>44567</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E47" s="5">
         <v>348</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F47" s="3">
         <v>44633</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G47" s="3">
         <v>44567</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/ronnie_burchett_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4BCE3F2E-369C-4696-97A1-E6FD1CF2F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA23BFE-70F3-42AA-AC6F-B3313A66DB9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3138423E-163F-4E25-8BFB-5CD8816B06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57765" yWindow="345" windowWidth="28770" windowHeight="13680" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Southern Star Express, LLC (DDF8)</t>
+  </si>
+  <si>
+    <t>Home Point Financial Corporation</t>
   </si>
 </sst>
 </file>
@@ -834,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,62 +883,62 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5">
-        <v>57</v>
+        <v>526</v>
       </c>
       <c r="F2" s="3">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="G2" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="G3" s="3">
         <v>44802</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>44796</v>
+        <v>44798</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>31</v>
@@ -944,13 +947,13 @@
         <v>32</v>
       </c>
       <c r="E4" s="5">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3">
-        <v>44807</v>
+        <v>44859</v>
       </c>
       <c r="G4" s="3">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>33</v>
@@ -958,28 +961,28 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F5" s="3">
-        <v>44807</v>
+        <v>44833</v>
       </c>
       <c r="G5" s="3">
         <v>44803</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -987,7 +990,7 @@
         <v>44796</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -996,7 +999,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3">
         <v>44807</v>
@@ -1013,7 +1016,7 @@
         <v>44796</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
@@ -1022,7 +1025,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <v>44807</v>
@@ -1039,7 +1042,7 @@
         <v>44796</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -1051,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G8" s="3">
         <v>44803</v>
@@ -1065,7 +1068,7 @@
         <v>44796</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1074,7 +1077,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3">
         <v>44807</v>
@@ -1088,97 +1091,97 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
-        <v>44833</v>
+        <v>44827</v>
       </c>
       <c r="G10" s="3">
         <v>44803</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3">
-        <v>44834</v>
+        <v>44807</v>
       </c>
       <c r="G11" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F12" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G12" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E13" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3">
         <v>44835</v>
@@ -1187,111 +1190,111 @@
         <v>44783</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15">
-        <v>116</v>
-      </c>
-      <c r="F14" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G14" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>23</v>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E15" s="15">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F15" s="13">
-        <v>44867</v>
+        <v>44834</v>
       </c>
       <c r="G15" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15">
+        <v>69</v>
+      </c>
+      <c r="F16" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G16" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
         <v>44768</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>78</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>44829</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>44770</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="5">
-        <v>64</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G17" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1299,16 +1302,16 @@
         <v>44767</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3">
         <v>44762</v>
@@ -1317,7 +1320,7 @@
         <v>44767</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1325,16 +1328,16 @@
         <v>44767</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3">
         <v>44762</v>
@@ -1343,345 +1346,345 @@
         <v>44767</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5">
+        <v>92</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
         <v>44761</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>125</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>44804</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>44768</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="5">
-        <v>115</v>
-      </c>
-      <c r="F21" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G21" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F22" s="3">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="G22" s="3">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5">
+        <v>110</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>44761</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>90</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <v>44807</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <v>44761</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="11">
-        <v>83</v>
-      </c>
-      <c r="F24" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G24" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="11">
+        <v>83</v>
+      </c>
+      <c r="F25" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G25" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
         <v>44747</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>45</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>44740</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>44747</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="5">
-        <v>36</v>
-      </c>
-      <c r="F26" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G26" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3">
-        <v>44786</v>
+        <v>44805</v>
       </c>
       <c r="G27" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="5">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="F28" s="3">
-        <v>44774</v>
+        <v>44786</v>
       </c>
       <c r="G28" s="3">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="F29" s="3">
-        <v>44736</v>
+        <v>44774</v>
       </c>
       <c r="G29" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="5">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="F30" s="3">
-        <v>44794</v>
+        <v>44736</v>
       </c>
       <c r="G30" s="3">
         <v>44739</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E31" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F31" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G31" s="3">
         <v>44739</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>44718</v>
+        <v>44729</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E32" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F32" s="3">
-        <v>44738</v>
+        <v>44564</v>
       </c>
       <c r="G32" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1689,7 +1692,7 @@
         <v>44718</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>21</v>
@@ -1698,7 +1701,7 @@
         <v>22</v>
       </c>
       <c r="E33" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F33" s="3">
         <v>44738</v>
@@ -1711,81 +1714,81 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="5">
+        <v>85</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
         <v>44693</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>81</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="8">
         <v>44756</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>44693</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
         <v>44678</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>202</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>44736</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>44684</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="5">
-        <v>31</v>
-      </c>
-      <c r="F36" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G36" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1793,7 +1796,7 @@
         <v>44635</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>31</v>
@@ -1802,7 +1805,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3">
         <v>44651</v>
@@ -1819,7 +1822,7 @@
         <v>44635</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>31</v>
@@ -1828,7 +1831,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F38" s="3">
         <v>44651</v>
@@ -1845,7 +1848,7 @@
         <v>44635</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>31</v>
@@ -1854,7 +1857,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="3">
         <v>44651</v>
@@ -1868,209 +1871,235 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>44648</v>
+        <v>44635</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E40" s="5">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F40" s="3">
-        <v>44712</v>
+        <v>44651</v>
       </c>
       <c r="G40" s="3">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>44628</v>
+        <v>44648</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E41" s="5">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F41" s="3">
-        <v>44687</v>
+        <v>44712</v>
       </c>
       <c r="G41" s="3">
-        <v>44635</v>
+        <v>44652</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="5">
+        <v>109</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G42" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>44627</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="5">
         <v>62</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>44627</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <v>44642</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>44621</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>206</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="3">
         <v>44682</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="3">
         <v>44621</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
-        <v>44607</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="5">
-        <v>84</v>
-      </c>
-      <c r="F44" s="3">
-        <v>44669</v>
-      </c>
-      <c r="G44" s="3">
-        <v>44607</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
+        <v>44607</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="5">
+        <v>84</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44669</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44607</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>44589</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>178</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="3">
         <v>44647</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="3">
         <v>44589</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
         <v>44585</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>80</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>44572</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>44585</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>44567</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>348</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <v>44633</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>44567</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3138423E-163F-4E25-8BFB-5CD8816B06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3138423E-163F-4E25-8BFB-5CD8816B06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04389ECD-8291-4BC5-BABF-FF125AFFDBBC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="4410" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Home Point Financial Corporation</t>
+  </si>
+  <si>
+    <t>Southern Star Express LLC - Fort Worth</t>
   </si>
 </sst>
 </file>
@@ -837,25 +840,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,168 +884,168 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>44813</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44811</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44813</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>44804</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>526</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3">
         <v>44866</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="3">
         <v>44804</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>44802</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>57</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>44862</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44802</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44798</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5">
-        <v>117</v>
-      </c>
-      <c r="F4" s="3">
-        <v>44859</v>
       </c>
       <c r="G4" s="3">
         <v>44802</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
+        <v>117</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>44797</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13">
+        <v>44797</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44804</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44797</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E7" s="5">
         <v>55</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F7" s="3">
         <v>44833</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44807</v>
       </c>
       <c r="G7" s="3">
         <v>44803</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44796</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -1051,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3">
         <v>44807</v>
@@ -1063,12 +1066,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44796</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1077,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3">
         <v>44807</v>
@@ -1089,12 +1092,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44796</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
@@ -1106,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G10" s="3">
         <v>44803</v>
@@ -1115,12 +1118,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44796</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -1129,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3">
         <v>44807</v>
@@ -1141,64 +1144,64 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44827</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>44792</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
-        <v>134</v>
-      </c>
-      <c r="F12" s="3">
-        <v>44834</v>
-      </c>
-      <c r="G12" s="3">
-        <v>44792</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>44783</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="5">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>44835</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44783</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>44782</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1207,163 +1210,163 @@
         <v>18</v>
       </c>
       <c r="E14" s="5">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F14" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G14" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>44770</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E17" s="15">
         <v>116</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F17" s="13">
         <v>44834</v>
-      </c>
-      <c r="G15" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15">
-        <v>69</v>
-      </c>
-      <c r="F16" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G16" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
-        <v>44768</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="15">
-        <v>78</v>
-      </c>
-      <c r="F17" s="13">
-        <v>44829</v>
       </c>
       <c r="G17" s="13">
         <v>44770</v>
       </c>
       <c r="H17" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15">
+        <v>69</v>
+      </c>
+      <c r="F18" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G18" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>44768</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="15">
+        <v>78</v>
+      </c>
+      <c r="F19" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G19" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="5">
-        <v>64</v>
-      </c>
-      <c r="F18" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G18" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="5">
-        <v>72</v>
-      </c>
-      <c r="F19" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G19" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44767</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3">
         <v>44762</v>
@@ -1372,41 +1375,41 @@
         <v>44767</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
-        <v>44761</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="15">
-        <v>125</v>
-      </c>
-      <c r="F21" s="13">
-        <v>44804</v>
-      </c>
-      <c r="G21" s="13">
-        <v>44768</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44761</v>
+        <v>44767</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>78</v>
@@ -1415,180 +1418,180 @@
         <v>79</v>
       </c>
       <c r="E22" s="5">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3">
-        <v>44822</v>
+        <v>44762</v>
       </c>
       <c r="G22" s="3">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>44762</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="5">
-        <v>110</v>
-      </c>
-      <c r="F23" s="3">
-        <v>44824</v>
-      </c>
-      <c r="G23" s="3">
-        <v>44762</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>44761</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="15">
+        <v>125</v>
+      </c>
+      <c r="F23" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G23" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44761</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="5">
+        <v>115</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44763</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="5">
+        <v>110</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>90</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F26" s="3">
         <v>44807</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G26" s="3">
         <v>44761</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>44748</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E27" s="11">
         <v>83</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F27" s="9">
         <v>44812</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G27" s="9">
         <v>44755</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>44747</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E28" s="11">
         <v>45</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F28" s="9">
         <v>44740</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G28" s="9">
         <v>44747</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>44743</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="5">
-        <v>36</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G27" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5">
-        <v>313</v>
-      </c>
-      <c r="F28" s="3">
-        <v>44786</v>
-      </c>
-      <c r="G28" s="3">
-        <v>44742</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>44740</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>17</v>
@@ -1597,258 +1600,258 @@
         <v>18</v>
       </c>
       <c r="E29" s="5">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="G29" s="3">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44736</v>
+        <v>44742</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="5">
+        <v>313</v>
+      </c>
+      <c r="F30" s="3">
+        <v>44786</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44742</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="5">
+        <v>143</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44741</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5">
         <v>428</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <v>44736</v>
-      </c>
-      <c r="G30" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="5">
-        <v>47</v>
-      </c>
-      <c r="F31" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G31" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>44729</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="5">
-        <v>32</v>
-      </c>
-      <c r="F32" s="3">
-        <v>44564</v>
       </c>
       <c r="G32" s="3">
         <v>44739</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5">
+        <v>47</v>
+      </c>
+      <c r="F33" s="3">
+        <v>44794</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="5">
+        <v>32</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>44718</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E35" s="5">
         <v>45</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F35" s="3">
         <v>44738</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G35" s="3">
         <v>44720</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>44718</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E36" s="5">
         <v>85</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F36" s="3">
         <v>44738</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G36" s="3">
         <v>44720</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>44693</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E37" s="7">
         <v>81</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F37" s="8">
         <v>44756</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G37" s="8">
         <v>44693</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>44678</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E38" s="11">
         <v>202</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F38" s="9">
         <v>44736</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G38" s="9">
         <v>44684</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="5">
-        <v>31</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G37" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="5">
-        <v>26</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G38" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44635</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>31</v>
@@ -1857,7 +1860,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F39" s="3">
         <v>44651</v>
@@ -1869,12 +1872,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44635</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>31</v>
@@ -1883,7 +1886,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F40" s="3">
         <v>44651</v>
@@ -1895,211 +1898,263 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5">
+        <v>18</v>
+      </c>
+      <c r="F41" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5">
+        <v>19</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G42" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>44648</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E43" s="5">
         <v>122</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F43" s="3">
         <v>44712</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G43" s="3">
         <v>44652</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44628</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E44" s="5">
         <v>109</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F44" s="3">
         <v>44687</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G44" s="3">
         <v>44635</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44627</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E45" s="5">
         <v>62</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F45" s="3">
         <v>44627</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G45" s="3">
         <v>44642</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44621</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E46" s="5">
         <v>206</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F46" s="3">
         <v>44682</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G46" s="3">
         <v>44621</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44607</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E47" s="5">
         <v>84</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F47" s="3">
         <v>44669</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G47" s="3">
         <v>44607</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44589</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E48" s="5">
         <v>178</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F48" s="3">
         <v>44647</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G48" s="3">
         <v>44589</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>44585</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E49" s="11">
         <v>80</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F49" s="9">
         <v>44572</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G49" s="9">
         <v>44585</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44567</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E50" s="5">
         <v>348</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F50" s="3">
         <v>44633</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G50" s="3">
         <v>44567</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3138423E-163F-4E25-8BFB-5CD8816B06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04389ECD-8291-4BC5-BABF-FF125AFFDBBC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3138423E-163F-4E25-8BFB-5CD8816B06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCBD24A-D2BE-41A6-87F9-3082DCE03297}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>Southern Star Express LLC - Fort Worth</t>
+  </si>
+  <si>
+    <t>Sealed Air Corporation</t>
+  </si>
+  <si>
+    <t>Carrollton</t>
+  </si>
+  <si>
+    <t>Rubbermaid Commercial Products LLc</t>
   </si>
 </sst>
 </file>
@@ -840,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,210 +895,210 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44813</v>
+        <v>44818</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3">
-        <v>44811</v>
+        <v>44879</v>
       </c>
       <c r="G2" s="3">
-        <v>44813</v>
+        <v>44818</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44804</v>
+        <v>44817</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>526</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3">
-        <v>44866</v>
+        <v>44883</v>
       </c>
       <c r="G3" s="3">
-        <v>44804</v>
+        <v>44817</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44802</v>
+        <v>44813</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3">
-        <v>44862</v>
+        <v>44811</v>
       </c>
       <c r="G4" s="3">
-        <v>44802</v>
+        <v>44813</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44798</v>
+        <v>44804</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>117</v>
+        <v>526</v>
       </c>
       <c r="F5" s="3">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="G5" s="3">
+        <v>44804</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>44802</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>44797</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15">
-        <v>39</v>
-      </c>
-      <c r="F6" s="13">
-        <v>44797</v>
-      </c>
-      <c r="G6" s="13">
-        <v>44804</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>23</v>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44862</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>44797</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44833</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>33</v>
+      <c r="B8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13">
+        <v>44797</v>
+      </c>
+      <c r="G8" s="13">
+        <v>44804</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F9" s="3">
-        <v>44807</v>
+        <v>44833</v>
       </c>
       <c r="G9" s="3">
         <v>44803</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,7 +1106,7 @@
         <v>44796</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
@@ -1106,7 +1115,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3">
         <v>44807</v>
@@ -1123,7 +1132,7 @@
         <v>44796</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -1132,7 +1141,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3">
         <v>44807</v>
@@ -1149,7 +1158,7 @@
         <v>44796</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
@@ -1161,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G12" s="3">
         <v>44803</v>
@@ -1175,7 +1184,7 @@
         <v>44796</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1184,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3">
         <v>44807</v>
@@ -1198,62 +1207,62 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
-        <v>44834</v>
+        <v>44827</v>
       </c>
       <c r="G14" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44783</v>
+        <v>44796</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>44835</v>
+        <v>44807</v>
       </c>
       <c r="G15" s="3">
-        <v>44783</v>
+        <v>44803</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44782</v>
+        <v>44792</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
@@ -1262,146 +1271,146 @@
         <v>18</v>
       </c>
       <c r="E16" s="5">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F16" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G16" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="15">
-        <v>116</v>
-      </c>
-      <c r="F17" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G17" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>23</v>
+      <c r="A17" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15">
-        <v>69</v>
-      </c>
-      <c r="F18" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G18" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>11</v>
+      <c r="A18" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>44768</v>
+        <v>44770</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E19" s="15">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F19" s="13">
-        <v>44829</v>
+        <v>44834</v>
       </c>
       <c r="G19" s="13">
         <v>44770</v>
       </c>
       <c r="H19" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="15">
+        <v>69</v>
+      </c>
+      <c r="F20" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G20" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>44768</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="15">
+        <v>78</v>
+      </c>
+      <c r="F21" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G21" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5">
-        <v>64</v>
-      </c>
-      <c r="F20" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G20" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="5">
-        <v>72</v>
-      </c>
-      <c r="F21" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G21" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1409,16 +1418,16 @@
         <v>44767</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E22" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
         <v>44762</v>
@@ -1427,41 +1436,41 @@
         <v>44767</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>44761</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="15">
-        <v>125</v>
-      </c>
-      <c r="F23" s="13">
-        <v>44804</v>
-      </c>
-      <c r="G23" s="13">
-        <v>44768</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>33</v>
+      <c r="A23" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44761</v>
+        <v>44767</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>78</v>
@@ -1470,42 +1479,42 @@
         <v>79</v>
       </c>
       <c r="E24" s="5">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F24" s="3">
-        <v>44822</v>
+        <v>44762</v>
       </c>
       <c r="G24" s="3">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44762</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="5">
-        <v>110</v>
-      </c>
-      <c r="F25" s="3">
-        <v>44824</v>
-      </c>
-      <c r="G25" s="3">
-        <v>44762</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>76</v>
+      <c r="A25" s="13">
+        <v>44761</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="15">
+        <v>125</v>
+      </c>
+      <c r="F25" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G25" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,137 +1522,137 @@
         <v>44761</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5">
+        <v>115</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44763</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="5">
+        <v>110</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E28" s="5">
         <v>90</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F28" s="3">
         <v>44807</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G28" s="3">
         <v>44761</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>44748</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E29" s="11">
         <v>83</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F29" s="9">
         <v>44812</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G29" s="9">
         <v>44755</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>44747</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E30" s="11">
         <v>45</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F30" s="9">
         <v>44740</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G30" s="9">
         <v>44747</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="5">
-        <v>36</v>
-      </c>
-      <c r="F29" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G29" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5">
-        <v>313</v>
-      </c>
-      <c r="F30" s="3">
-        <v>44786</v>
-      </c>
-      <c r="G30" s="3">
-        <v>44742</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44740</v>
+        <v>44743</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>17</v>
@@ -1652,250 +1661,250 @@
         <v>18</v>
       </c>
       <c r="E31" s="5">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="G31" s="3">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44736</v>
+        <v>44742</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="5">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="F32" s="3">
-        <v>44736</v>
+        <v>44786</v>
       </c>
       <c r="G32" s="3">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44735</v>
+        <v>44740</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E33" s="5">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="F33" s="3">
-        <v>44794</v>
+        <v>44774</v>
       </c>
       <c r="G33" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44729</v>
+        <v>44736</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5">
-        <v>32</v>
+        <v>428</v>
       </c>
       <c r="F34" s="3">
-        <v>44564</v>
+        <v>44736</v>
       </c>
       <c r="G34" s="3">
         <v>44739</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44718</v>
+        <v>44735</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F35" s="3">
-        <v>44738</v>
+        <v>44794</v>
       </c>
       <c r="G35" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5">
+        <v>32</v>
+      </c>
+      <c r="F36" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>44718</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="5">
+        <v>45</v>
+      </c>
+      <c r="F37" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E38" s="5">
         <v>85</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F38" s="3">
         <v>44738</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G38" s="3">
         <v>44720</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>44693</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E39" s="7">
         <v>81</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F39" s="8">
         <v>44756</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G39" s="8">
         <v>44693</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>44678</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E40" s="11">
         <v>202</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F40" s="9">
         <v>44736</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G40" s="9">
         <v>44684</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="5">
-        <v>31</v>
-      </c>
-      <c r="F39" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G39" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="5">
-        <v>26</v>
-      </c>
-      <c r="F40" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G40" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1903,7 +1912,7 @@
         <v>44635</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>31</v>
@@ -1912,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F41" s="3">
         <v>44651</v>
@@ -1929,7 +1938,7 @@
         <v>44635</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>31</v>
@@ -1938,7 +1947,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F42" s="3">
         <v>44651</v>
@@ -1952,209 +1961,261 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44648</v>
+        <v>44635</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F43" s="3">
-        <v>44712</v>
+        <v>44651</v>
       </c>
       <c r="G43" s="3">
-        <v>44652</v>
+        <v>44657</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44628</v>
+        <v>44635</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E44" s="5">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F44" s="3">
-        <v>44687</v>
+        <v>44651</v>
       </c>
       <c r="G44" s="3">
-        <v>44635</v>
+        <v>44657</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E45" s="5">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F45" s="3">
-        <v>44627</v>
+        <v>44712</v>
       </c>
       <c r="G45" s="3">
-        <v>44642</v>
+        <v>44652</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="5">
+        <v>109</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="5">
+        <v>62</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44627</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44642</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44621</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E48" s="5">
         <v>206</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F48" s="3">
         <v>44682</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G48" s="3">
         <v>44621</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44607</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E49" s="5">
         <v>84</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F49" s="3">
         <v>44669</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G49" s="3">
         <v>44607</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>44589</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="5">
-        <v>178</v>
-      </c>
-      <c r="F48" s="3">
-        <v>44647</v>
-      </c>
-      <c r="G48" s="3">
-        <v>44589</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>44585</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="11">
-        <v>80</v>
-      </c>
-      <c r="F49" s="9">
-        <v>44572</v>
-      </c>
-      <c r="G49" s="9">
-        <v>44585</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="5">
+        <v>178</v>
+      </c>
+      <c r="F50" s="3">
+        <v>44647</v>
+      </c>
+      <c r="G50" s="3">
+        <v>44589</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>44585</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="11">
+        <v>80</v>
+      </c>
+      <c r="F51" s="9">
+        <v>44572</v>
+      </c>
+      <c r="G51" s="9">
+        <v>44585</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44567</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E52" s="5">
         <v>348</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F52" s="3">
         <v>44633</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G52" s="3">
         <v>44567</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{3138423E-163F-4E25-8BFB-5CD8816B06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCBD24A-D2BE-41A6-87F9-3082DCE03297}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C907981F-0BBA-401C-97FC-7F861F2D32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>Rubbermaid Commercial Products LLc</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>The James Skinner Company</t>
   </si>
 </sst>
 </file>
@@ -849,25 +858,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,246 +902,246 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>44826</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="15">
+        <v>179</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44826</v>
+      </c>
+      <c r="G2" s="13">
+        <v>44826</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>44818</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>64</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3">
         <v>44879</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="3">
         <v>44818</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>44817</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>49</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>44883</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>44817</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>44813</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>53</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>44811</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>44813</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>44804</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>526</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>44866</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>44804</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>44802</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>57</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>44862</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44802</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44798</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5">
-        <v>117</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44859</v>
       </c>
       <c r="G7" s="3">
         <v>44802</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>117</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>44797</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="15">
         <v>39</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>44797</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>44804</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>44797</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>55</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>44833</v>
-      </c>
-      <c r="G9" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3">
-        <v>44807</v>
       </c>
       <c r="G10" s="3">
         <v>44803</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44796</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -1141,7 +1150,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3">
         <v>44807</v>
@@ -1153,12 +1162,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44796</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
@@ -1167,7 +1176,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
         <v>44807</v>
@@ -1179,12 +1188,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44796</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1193,7 +1202,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3">
         <v>44807</v>
@@ -1205,12 +1214,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44796</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -1219,10 +1228,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G14" s="3">
         <v>44803</v>
@@ -1231,12 +1240,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44796</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
@@ -1245,10 +1254,10 @@
         <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3">
-        <v>44807</v>
+        <v>44827</v>
       </c>
       <c r="G15" s="3">
         <v>44803</v>
@@ -1257,73 +1266,73 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>44792</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>134</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>44834</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>44792</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>44783</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>9</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44835</v>
-      </c>
-      <c r="G17" s="3">
-        <v>44783</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44782</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="5">
-        <v>29</v>
       </c>
       <c r="F18" s="3">
         <v>44835</v>
@@ -1332,128 +1341,128 @@
         <v>44783</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>44770</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>116</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>44834</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>44770</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>44769</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>69</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>44867</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>44769</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>44768</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>78</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>44829</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>44770</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="5">
-        <v>64</v>
-      </c>
-      <c r="F22" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G22" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44767</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3">
         <v>44762</v>
@@ -1462,24 +1471,24 @@
         <v>44767</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44767</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E24" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F24" s="3">
         <v>44762</v>
@@ -1488,353 +1497,353 @@
         <v>44767</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="5">
+        <v>92</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>44761</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>125</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>44804</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>44768</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H26" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>44761</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>115</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="3">
         <v>44822</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>44763</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>44762</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>110</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>44824</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>44762</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>44761</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>90</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>44807</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>44761</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>44748</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>83</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>44812</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>44755</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>44747</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>45</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>44740</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>44747</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>44743</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>36</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>44805</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="3">
         <v>44743</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>44742</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>313</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>44786</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>44742</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>44740</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>143</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>44774</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
         <v>44741</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>44736</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>428</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>44736</v>
-      </c>
-      <c r="G34" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="5">
-        <v>47</v>
-      </c>
-      <c r="F35" s="3">
-        <v>44794</v>
       </c>
       <c r="G35" s="3">
         <v>44739</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F36" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G36" s="3">
         <v>44739</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="5">
+        <v>32</v>
+      </c>
+      <c r="F37" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>44718</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="5">
-        <v>45</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44738</v>
-      </c>
-      <c r="G37" s="3">
-        <v>44720</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44718</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>21</v>
@@ -1843,7 +1852,7 @@
         <v>22</v>
       </c>
       <c r="E38" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F38" s="3">
         <v>44738</v>
@@ -1855,90 +1864,90 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="5">
+        <v>85</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>44693</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>81</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>44756</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>44693</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>44678</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>202</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>44736</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>44684</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="5">
-        <v>31</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G41" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44635</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>31</v>
@@ -1947,7 +1956,7 @@
         <v>32</v>
       </c>
       <c r="E42" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F42" s="3">
         <v>44651</v>
@@ -1959,12 +1968,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>44635</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>31</v>
@@ -1973,7 +1982,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F43" s="3">
         <v>44651</v>
@@ -1985,12 +1994,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44635</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -1999,7 +2008,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="3">
         <v>44651</v>
@@ -2011,211 +2020,237 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5">
+        <v>19</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>44648</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>122</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="3">
         <v>44712</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="3">
         <v>44652</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>44628</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="5">
         <v>109</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="3">
         <v>44687</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="3">
         <v>44635</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>44627</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>62</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <v>44627</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>44642</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>44621</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>206</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>44682</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>44621</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>44607</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <v>84</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="3">
         <v>44669</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="3">
         <v>44607</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>44589</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="5">
         <v>178</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="3">
         <v>44647</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="3">
         <v>44589</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>44585</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>80</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>44572</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>44585</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H52" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>44567</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E53" s="5">
         <v>348</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="3">
         <v>44633</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="3">
         <v>44567</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C907981F-0BBA-401C-97FC-7F861F2D32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4375B818-B2DE-4674-A19A-0084D0AB8061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3946CDE-B3A6-45AF-A458-9E19CA242C8C}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="33195" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>The James Skinner Company</t>
+  </si>
+  <si>
+    <t>Quarter North Energy LLC</t>
   </si>
 </sst>
 </file>
@@ -858,25 +861,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,272 +905,272 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44835</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44895</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44837</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>44826</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E3" s="15">
         <v>179</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F3" s="13">
         <v>44826</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G3" s="13">
         <v>44826</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>44818</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>64</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>44879</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>44818</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>44817</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>49</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>44883</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>44817</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>44813</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>53</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>44811</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>44813</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>44804</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>526</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>44866</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>44804</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>44802</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>57</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>44862</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44802</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>44798</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5">
-        <v>117</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44859</v>
       </c>
       <c r="G8" s="3">
         <v>44802</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5">
+        <v>117</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>44797</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>39</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>44797</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>44804</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>44797</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>55</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>44833</v>
-      </c>
-      <c r="G10" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3">
-        <v>44807</v>
       </c>
       <c r="G11" s="3">
         <v>44803</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44796</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
@@ -1176,7 +1179,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3">
         <v>44807</v>
@@ -1188,12 +1191,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44796</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1202,7 +1205,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>44807</v>
@@ -1214,12 +1217,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44796</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -1228,7 +1231,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
         <v>44807</v>
@@ -1240,12 +1243,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44796</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
@@ -1254,10 +1257,10 @@
         <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G15" s="3">
         <v>44803</v>
@@ -1266,12 +1269,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44796</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1280,10 +1283,10 @@
         <v>32</v>
       </c>
       <c r="E16" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
-        <v>44807</v>
+        <v>44827</v>
       </c>
       <c r="G16" s="3">
         <v>44803</v>
@@ -1292,73 +1295,73 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>44792</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>134</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="3">
         <v>44834</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>44792</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>44783</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>9</v>
-      </c>
-      <c r="F18" s="3">
-        <v>44835</v>
-      </c>
-      <c r="G18" s="3">
-        <v>44783</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>44782</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="5">
-        <v>29</v>
       </c>
       <c r="F19" s="3">
         <v>44835</v>
@@ -1367,128 +1370,128 @@
         <v>44783</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>44770</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>116</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>44834</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>44770</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>44769</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>69</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>44867</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>44769</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>44768</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>78</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>44829</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>44770</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="5">
-        <v>64</v>
-      </c>
-      <c r="F23" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G23" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44767</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F24" s="3">
         <v>44762</v>
@@ -1497,24 +1500,24 @@
         <v>44767</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44767</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E25" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F25" s="3">
         <v>44762</v>
@@ -1523,353 +1526,353 @@
         <v>44767</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5">
+        <v>92</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>44761</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>125</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>44804</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>44768</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H27" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>44761</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>115</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>44822</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>44763</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>44762</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>110</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>44824</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>44762</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>44761</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>90</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <v>44807</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>44761</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>44748</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>83</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>44812</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>44755</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>44747</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>45</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>44740</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>44747</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>44743</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>36</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>44805</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>44743</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>44742</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>313</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>44786</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
         <v>44742</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>44740</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>143</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>44774</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>44741</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>44736</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>428</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="3">
         <v>44736</v>
-      </c>
-      <c r="G35" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="5">
-        <v>47</v>
-      </c>
-      <c r="F36" s="3">
-        <v>44794</v>
       </c>
       <c r="G36" s="3">
         <v>44739</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E37" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F37" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G37" s="3">
         <v>44739</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5">
+        <v>32</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>44718</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="5">
-        <v>45</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44738</v>
-      </c>
-      <c r="G38" s="3">
-        <v>44720</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44718</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>21</v>
@@ -1878,7 +1881,7 @@
         <v>22</v>
       </c>
       <c r="E39" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F39" s="3">
         <v>44738</v>
@@ -1890,90 +1893,90 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="5">
+        <v>85</v>
+      </c>
+      <c r="F40" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>44693</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>81</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="8">
         <v>44756</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>44693</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>44678</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>202</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>44736</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>44684</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="5">
-        <v>31</v>
-      </c>
-      <c r="F42" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G42" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44635</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>31</v>
@@ -1982,7 +1985,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F43" s="3">
         <v>44651</v>
@@ -1994,12 +1997,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44635</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -2008,7 +2011,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F44" s="3">
         <v>44651</v>
@@ -2020,12 +2023,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44635</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -2034,7 +2037,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3">
         <v>44651</v>
@@ -2046,211 +2049,237 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="5">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>44648</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="5">
         <v>122</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="3">
         <v>44712</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="3">
         <v>44652</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>44628</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>109</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="3">
         <v>44687</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>44635</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44627</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>62</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>44627</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>44642</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>44621</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <v>206</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="3">
         <v>44682</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="3">
         <v>44621</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44607</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="5">
         <v>84</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="3">
         <v>44669</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="3">
         <v>44607</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44589</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="5">
         <v>178</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="3">
         <v>44647</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G52" s="3">
         <v>44589</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>44585</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>80</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>44572</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>44585</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H53" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44567</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <v>348</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="3">
         <v>44633</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="3">
         <v>44567</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4375B818-B2DE-4674-A19A-0084D0AB8061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3946CDE-B3A6-45AF-A458-9E19CA242C8C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0524CA7E-75A4-432A-A1EE-A19E46EED737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33195" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19560" windowHeight="10128" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Quarter North Energy LLC</t>
+  </si>
+  <si>
+    <t>Rev.com, Inc</t>
+  </si>
+  <si>
+    <t>Valley International Cold Storage LLC</t>
+  </si>
+  <si>
+    <t>Harlingen</t>
   </si>
 </sst>
 </file>
@@ -861,25 +870,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,324 +914,324 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
+        <v>44838</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="5">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44819</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44838</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44841</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44855</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44841</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>44835</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E4" s="5">
         <v>43</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F4" s="3">
         <v>44895</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G4" s="3">
         <v>44837</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>44826</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E5" s="15">
         <v>179</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F5" s="13">
         <v>44826</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G5" s="13">
         <v>44826</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>44818</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E6" s="5">
         <v>64</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>44879</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G6" s="3">
         <v>44818</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>44817</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44883</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44817</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3">
-        <v>44811</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44804</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="5">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44883</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44817</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44813</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44811</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44813</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
         <v>526</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F9" s="3">
         <v>44866</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G9" s="3">
         <v>44804</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>44802</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>57</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>44862</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="3">
         <v>44802</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>44798</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E11" s="5">
         <v>117</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <v>44859</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="3">
         <v>44802</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>44797</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E12" s="15">
         <v>39</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F12" s="13">
         <v>44797</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G12" s="13">
         <v>44804</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>44797</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E13" s="5">
         <v>55</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
         <v>44833</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G12" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>44807</v>
       </c>
       <c r="G13" s="3">
         <v>44803</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44796</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -1231,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3">
         <v>44807</v>
@@ -1243,12 +1252,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44796</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
@@ -1257,7 +1266,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>44807</v>
@@ -1269,12 +1278,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44796</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1286,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G16" s="3">
         <v>44803</v>
@@ -1295,12 +1304,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44796</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
@@ -1309,7 +1318,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3">
         <v>44807</v>
@@ -1321,64 +1330,64 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44827</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>44792</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="5">
-        <v>134</v>
-      </c>
-      <c r="F18" s="3">
-        <v>44834</v>
-      </c>
-      <c r="G18" s="3">
-        <v>44792</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44783</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="5">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3">
-        <v>44835</v>
-      </c>
-      <c r="G19" s="3">
-        <v>44783</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44782</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1387,163 +1396,163 @@
         <v>18</v>
       </c>
       <c r="E20" s="5">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F20" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G20" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>44770</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E23" s="15">
         <v>116</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F23" s="13">
         <v>44834</v>
-      </c>
-      <c r="G21" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="15">
-        <v>69</v>
-      </c>
-      <c r="F22" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G22" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>44768</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="15">
-        <v>78</v>
-      </c>
-      <c r="F23" s="13">
-        <v>44829</v>
       </c>
       <c r="G23" s="13">
         <v>44770</v>
       </c>
       <c r="H23" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="15">
+        <v>69</v>
+      </c>
+      <c r="F24" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G24" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>44768</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="15">
+        <v>78</v>
+      </c>
+      <c r="F25" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G25" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="5">
-        <v>64</v>
-      </c>
-      <c r="F24" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G24" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="5">
-        <v>72</v>
-      </c>
-      <c r="F25" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G25" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44767</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E26" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F26" s="3">
         <v>44762</v>
@@ -1552,41 +1561,41 @@
         <v>44767</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>44761</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="15">
-        <v>125</v>
-      </c>
-      <c r="F27" s="13">
-        <v>44804</v>
-      </c>
-      <c r="G27" s="13">
-        <v>44768</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="5">
+        <v>72</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>44761</v>
+        <v>44767</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>78</v>
@@ -1595,180 +1604,180 @@
         <v>79</v>
       </c>
       <c r="E28" s="5">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F28" s="3">
-        <v>44822</v>
+        <v>44762</v>
       </c>
       <c r="G28" s="3">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44762</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="5">
-        <v>110</v>
-      </c>
-      <c r="F29" s="3">
-        <v>44824</v>
-      </c>
-      <c r="G29" s="3">
-        <v>44762</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>44761</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="15">
+        <v>125</v>
+      </c>
+      <c r="F29" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G29" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44761</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="5">
+        <v>115</v>
+      </c>
+      <c r="F30" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44763</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="5">
+        <v>110</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E32" s="5">
         <v>90</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <v>44807</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G32" s="3">
         <v>44761</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>44748</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E33" s="11">
         <v>83</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F33" s="9">
         <v>44812</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G33" s="9">
         <v>44755</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>44747</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E34" s="11">
         <v>45</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F34" s="9">
         <v>44740</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G34" s="9">
         <v>44747</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>44743</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="5">
-        <v>36</v>
-      </c>
-      <c r="F33" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G33" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="5">
-        <v>313</v>
-      </c>
-      <c r="F34" s="3">
-        <v>44786</v>
-      </c>
-      <c r="G34" s="3">
-        <v>44742</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>44740</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>17</v>
@@ -1777,258 +1786,258 @@
         <v>18</v>
       </c>
       <c r="E35" s="5">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="F35" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="G35" s="3">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>44736</v>
+        <v>44742</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="5">
+        <v>313</v>
+      </c>
+      <c r="F36" s="3">
+        <v>44786</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44742</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="5">
+        <v>143</v>
+      </c>
+      <c r="F37" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44741</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5">
         <v>428</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F38" s="3">
         <v>44736</v>
-      </c>
-      <c r="G36" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="5">
-        <v>47</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G37" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>44729</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="5">
-        <v>32</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44564</v>
       </c>
       <c r="G38" s="3">
         <v>44739</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="5">
+        <v>47</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44794</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="5">
+        <v>32</v>
+      </c>
+      <c r="F40" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>44718</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E41" s="5">
         <v>45</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F41" s="3">
         <v>44738</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G41" s="3">
         <v>44720</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>44718</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E42" s="5">
         <v>85</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F42" s="3">
         <v>44738</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G42" s="3">
         <v>44720</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>44693</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E43" s="7">
         <v>81</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F43" s="8">
         <v>44756</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G43" s="8">
         <v>44693</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>44678</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E44" s="11">
         <v>202</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F44" s="9">
         <v>44736</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G44" s="9">
         <v>44684</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="5">
-        <v>31</v>
-      </c>
-      <c r="F43" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G43" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="5">
-        <v>26</v>
-      </c>
-      <c r="F44" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G44" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44635</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -2037,7 +2046,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3">
         <v>44651</v>
@@ -2049,12 +2058,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44635</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -2063,7 +2072,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F46" s="3">
         <v>44651</v>
@@ -2075,211 +2084,263 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="5">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5">
+        <v>19</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G48" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>44648</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E49" s="5">
         <v>122</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F49" s="3">
         <v>44712</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G49" s="3">
         <v>44652</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>44628</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E50" s="5">
         <v>109</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F50" s="3">
         <v>44687</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G50" s="3">
         <v>44635</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>44627</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E51" s="5">
         <v>62</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F51" s="3">
         <v>44627</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G51" s="3">
         <v>44642</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>44621</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E52" s="5">
         <v>206</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F52" s="3">
         <v>44682</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G52" s="3">
         <v>44621</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>44607</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E53" s="5">
         <v>84</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F53" s="3">
         <v>44669</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G53" s="3">
         <v>44607</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>44589</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E54" s="5">
         <v>178</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F54" s="3">
         <v>44647</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G54" s="3">
         <v>44589</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
         <v>44585</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E55" s="11">
         <v>80</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F55" s="9">
         <v>44572</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G55" s="9">
         <v>44585</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>44567</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E56" s="5">
         <v>348</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F56" s="3">
         <v>44633</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G56" s="3">
         <v>44567</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\datax103p\Rdata\Internet\Webwork\Working Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0524CA7E-75A4-432A-A1EE-A19E46EED737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4432B13B-EEF4-4F62-BB6A-D7DD557AB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19560" windowHeight="10128" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="31545" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>Harlingen</t>
+  </si>
+  <si>
+    <t>GXO Logistics of Texas, LLC (Dallas)</t>
+  </si>
+  <si>
+    <t>GXO Logistics of Texas, LLC (Lancaster)</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
   </si>
 </sst>
 </file>
@@ -440,6 +449,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -870,25 +880,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,376 +924,376 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>44847</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5">
+        <v>206</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44905</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44847</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44847</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44905</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44847</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>44838</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E4" s="5">
         <v>64</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F4" s="3">
         <v>44819</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G4" s="3">
         <v>44838</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>44841</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E5" s="5">
         <v>85</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F5" s="3">
         <v>44855</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G5" s="3">
         <v>44841</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>44835</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E6" s="5">
         <v>43</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F6" s="3">
         <v>44895</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G6" s="3">
         <v>44837</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>44826</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E7" s="15">
         <v>179</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F7" s="13">
         <v>44826</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G7" s="13">
         <v>44826</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>44818</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E8" s="5">
         <v>64</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F8" s="3">
         <v>44879</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G8" s="3">
         <v>44818</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>44817</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44883</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44817</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5">
-        <v>53</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44811</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>44804</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="5">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44883</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44817</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44813</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44811</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44813</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
         <v>526</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <v>44866</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="3">
         <v>44804</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>44802</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E12" s="5">
         <v>57</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F12" s="3">
         <v>44862</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G12" s="3">
         <v>44802</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>44798</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E13" s="5">
         <v>117</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F13" s="3">
         <v>44859</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G13" s="3">
         <v>44802</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>44797</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E14" s="15">
         <v>39</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F14" s="13">
         <v>44797</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G14" s="13">
         <v>44804</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>44797</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E15" s="5">
         <v>55</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F15" s="3">
         <v>44833</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G14" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44807</v>
       </c>
       <c r="G15" s="3">
         <v>44803</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44796</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1292,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3">
         <v>44807</v>
@@ -1304,12 +1314,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44796</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
@@ -1318,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
         <v>44807</v>
@@ -1330,12 +1340,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44796</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
@@ -1347,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G18" s="3">
         <v>44803</v>
@@ -1356,12 +1366,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44796</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -1370,7 +1380,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3">
         <v>44807</v>
@@ -1382,64 +1392,64 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44827</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>44792</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="5">
-        <v>134</v>
-      </c>
-      <c r="F20" s="3">
-        <v>44834</v>
-      </c>
-      <c r="G20" s="3">
-        <v>44792</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>44783</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="5">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3">
-        <v>44835</v>
-      </c>
-      <c r="G21" s="3">
-        <v>44783</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>44782</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
@@ -1448,163 +1458,163 @@
         <v>18</v>
       </c>
       <c r="E22" s="5">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F22" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G22" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>44770</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E25" s="15">
         <v>116</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F25" s="13">
         <v>44834</v>
-      </c>
-      <c r="G23" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="15">
-        <v>69</v>
-      </c>
-      <c r="F24" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G24" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>44768</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="15">
-        <v>78</v>
-      </c>
-      <c r="F25" s="13">
-        <v>44829</v>
       </c>
       <c r="G25" s="13">
         <v>44770</v>
       </c>
       <c r="H25" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="15">
+        <v>69</v>
+      </c>
+      <c r="F26" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G26" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>44768</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="15">
+        <v>78</v>
+      </c>
+      <c r="F27" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G27" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="5">
-        <v>64</v>
-      </c>
-      <c r="F26" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G26" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="5">
-        <v>72</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G27" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44767</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E28" s="5">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F28" s="3">
         <v>44762</v>
@@ -1613,41 +1623,41 @@
         <v>44767</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>44761</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="15">
-        <v>125</v>
-      </c>
-      <c r="F29" s="13">
-        <v>44804</v>
-      </c>
-      <c r="G29" s="13">
-        <v>44768</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="5">
+        <v>72</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44761</v>
+        <v>44767</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>78</v>
@@ -1656,180 +1666,180 @@
         <v>79</v>
       </c>
       <c r="E30" s="5">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3">
-        <v>44822</v>
+        <v>44762</v>
       </c>
       <c r="G30" s="3">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>44762</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="5">
-        <v>110</v>
-      </c>
-      <c r="F31" s="3">
-        <v>44824</v>
-      </c>
-      <c r="G31" s="3">
-        <v>44762</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>44761</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="15">
+        <v>125</v>
+      </c>
+      <c r="F31" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G31" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44761</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="5">
+        <v>115</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44763</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="5">
+        <v>110</v>
+      </c>
+      <c r="F33" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E34" s="5">
         <v>90</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F34" s="3">
         <v>44807</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G34" s="3">
         <v>44761</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>44748</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E35" s="11">
         <v>83</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F35" s="9">
         <v>44812</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G35" s="9">
         <v>44755</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>44747</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E36" s="11">
         <v>45</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F36" s="9">
         <v>44740</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G36" s="9">
         <v>44747</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>44743</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="5">
-        <v>36</v>
-      </c>
-      <c r="F35" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G35" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5">
-        <v>313</v>
-      </c>
-      <c r="F36" s="3">
-        <v>44786</v>
-      </c>
-      <c r="G36" s="3">
-        <v>44742</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>44740</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>17</v>
@@ -1838,258 +1848,258 @@
         <v>18</v>
       </c>
       <c r="E37" s="5">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="F37" s="3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="G37" s="3">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44736</v>
+        <v>44742</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="5">
+        <v>313</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44786</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44742</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="5">
+        <v>143</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44741</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5">
         <v>428</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F40" s="3">
         <v>44736</v>
-      </c>
-      <c r="G38" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="5">
-        <v>47</v>
-      </c>
-      <c r="F39" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G39" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>44729</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="5">
-        <v>32</v>
-      </c>
-      <c r="F40" s="3">
-        <v>44564</v>
       </c>
       <c r="G40" s="3">
         <v>44739</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="5">
+        <v>47</v>
+      </c>
+      <c r="F41" s="3">
+        <v>44794</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44729</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="5">
+        <v>32</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44564</v>
+      </c>
+      <c r="G42" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>44718</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E43" s="5">
         <v>45</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F43" s="3">
         <v>44738</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G43" s="3">
         <v>44720</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>44718</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E44" s="5">
         <v>85</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F44" s="3">
         <v>44738</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G44" s="3">
         <v>44720</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <v>44693</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E45" s="7">
         <v>81</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F45" s="8">
         <v>44756</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G45" s="8">
         <v>44693</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>44678</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E46" s="11">
         <v>202</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F46" s="9">
         <v>44736</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G46" s="9">
         <v>44684</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="5">
-        <v>31</v>
-      </c>
-      <c r="F45" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G45" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="5">
-        <v>26</v>
-      </c>
-      <c r="F46" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G46" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44635</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -2098,7 +2108,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F47" s="3">
         <v>44651</v>
@@ -2110,12 +2120,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44635</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>31</v>
@@ -2124,7 +2134,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F48" s="3">
         <v>44651</v>
@@ -2136,211 +2146,263 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="5">
+        <v>18</v>
+      </c>
+      <c r="F49" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="5">
+        <v>19</v>
+      </c>
+      <c r="F50" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G50" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44648</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E51" s="5">
         <v>122</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F51" s="3">
         <v>44712</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G51" s="3">
         <v>44652</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>44628</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E52" s="5">
         <v>109</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F52" s="3">
         <v>44687</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G52" s="3">
         <v>44635</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>44627</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E53" s="5">
         <v>62</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F53" s="3">
         <v>44627</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G53" s="3">
         <v>44642</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>44621</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E54" s="5">
         <v>206</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F54" s="3">
         <v>44682</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G54" s="3">
         <v>44621</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>44607</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E55" s="5">
         <v>84</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F55" s="3">
         <v>44669</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G55" s="3">
         <v>44607</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>44589</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E56" s="5">
         <v>178</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F56" s="3">
         <v>44647</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G56" s="3">
         <v>44589</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>44585</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E57" s="11">
         <v>80</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F57" s="9">
         <v>44572</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G57" s="9">
         <v>44585</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H57" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44567</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E58" s="5">
         <v>348</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F58" s="3">
         <v>44633</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G58" s="3">
         <v>44567</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4432B13B-EEF4-4F62-BB6A-D7DD557AB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4432B13B-EEF4-4F62-BB6A-D7DD557AB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1812AB29-DFFF-4B1D-89A5-A777E80A05F8}"/>
   <bookViews>
-    <workbookView xWindow="31545" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="142">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -412,6 +412,54 @@
   </si>
   <si>
     <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Westex Security Services, Inc.</t>
+  </si>
+  <si>
+    <t>DXP Enterprises</t>
+  </si>
+  <si>
+    <t>HJH Houston 1</t>
+  </si>
+  <si>
+    <t>Jacob Engineering</t>
+  </si>
+  <si>
+    <t>Sutton Court Homeowner's Association, Inc.</t>
+  </si>
+  <si>
+    <t>Third Coast Terminals</t>
+  </si>
+  <si>
+    <t>Brazoria</t>
+  </si>
+  <si>
+    <t>Pearland</t>
+  </si>
+  <si>
+    <t>Center Point Towers</t>
+  </si>
+  <si>
+    <t>Center Point Platinum</t>
+  </si>
+  <si>
+    <t>Center Point Harrisburg Service Center</t>
+  </si>
+  <si>
+    <t>Center Point South Houston Center Complex</t>
+  </si>
+  <si>
+    <t>Centerpoint Addicks Operation Center</t>
+  </si>
+  <si>
+    <t>Center Point Energy Control Data Center</t>
+  </si>
+  <si>
+    <t>Argo AI, LLC. (Austin Congress)</t>
+  </si>
+  <si>
+    <t>Argo AI, LLC. (Austin 7th Street)</t>
   </si>
 </sst>
 </file>
@@ -880,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,114 +974,114 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44847</v>
+        <v>44861</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E2" s="5">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
-        <v>44905</v>
+        <v>44866</v>
       </c>
       <c r="G2" s="3">
-        <v>44847</v>
+        <v>44861</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44847</v>
+        <v>44861</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3">
-        <v>44905</v>
+        <v>44866</v>
       </c>
       <c r="G3" s="3">
-        <v>44847</v>
+        <v>44861</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44838</v>
+        <v>44848</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
-        <v>44819</v>
+        <v>44916</v>
       </c>
       <c r="G4" s="3">
-        <v>44838</v>
+        <v>44858</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44841</v>
+        <v>44848</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>44855</v>
+        <v>44916</v>
       </c>
       <c r="G5" s="3">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44835</v>
+        <v>44848</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -1042,180 +1090,180 @@
         <v>32</v>
       </c>
       <c r="E6" s="5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>44895</v>
+        <v>44916</v>
       </c>
       <c r="G6" s="3">
-        <v>44837</v>
+        <v>44858</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>44826</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="15">
-        <v>179</v>
-      </c>
-      <c r="F7" s="13">
-        <v>44826</v>
-      </c>
-      <c r="G7" s="13">
-        <v>44826</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>117</v>
+      <c r="A7" s="3">
+        <v>44848</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44916</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44858</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44818</v>
+        <v>44848</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>44879</v>
+        <v>44916</v>
       </c>
       <c r="G8" s="3">
-        <v>44818</v>
+        <v>44858</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44817</v>
+        <v>44848</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>44883</v>
+        <v>44916</v>
       </c>
       <c r="G9" s="3">
-        <v>44817</v>
+        <v>44858</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44813</v>
+        <v>44848</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="F10" s="3">
-        <v>44811</v>
+        <v>44916</v>
       </c>
       <c r="G10" s="3">
-        <v>44813</v>
+        <v>44858</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44804</v>
+        <v>44848</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>526</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3">
-        <v>44866</v>
+        <v>44916</v>
       </c>
       <c r="G11" s="3">
-        <v>44804</v>
+        <v>44858</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44802</v>
+        <v>44848</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>44862</v>
+        <v>44916</v>
       </c>
       <c r="G12" s="3">
-        <v>44802</v>
+        <v>44858</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44798</v>
+        <v>44848</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1224,180 +1272,180 @@
         <v>32</v>
       </c>
       <c r="E13" s="5">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>44859</v>
+        <v>44916</v>
       </c>
       <c r="G13" s="3">
-        <v>44802</v>
+        <v>44858</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>44797</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="A14" s="3">
+        <v>44848</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5">
         <v>10</v>
       </c>
-      <c r="E14" s="15">
-        <v>39</v>
-      </c>
-      <c r="F14" s="13">
-        <v>44797</v>
-      </c>
-      <c r="G14" s="13">
-        <v>44804</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>23</v>
+      <c r="F14" s="3">
+        <v>44916</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44859</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44797</v>
+        <v>44848</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>44833</v>
+        <v>44916</v>
       </c>
       <c r="G15" s="3">
-        <v>44803</v>
+        <v>44859</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44796</v>
+        <v>44847</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="F16" s="3">
-        <v>44807</v>
+        <v>44905</v>
       </c>
       <c r="G16" s="3">
-        <v>44803</v>
+        <v>44847</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44796</v>
+        <v>44847</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3">
-        <v>44807</v>
+        <v>44905</v>
       </c>
       <c r="G17" s="3">
-        <v>44803</v>
+        <v>44847</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44796</v>
+        <v>44838</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3">
-        <v>44807</v>
+        <v>44819</v>
       </c>
       <c r="G18" s="3">
-        <v>44803</v>
+        <v>44838</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44796</v>
+        <v>44841</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E19" s="5">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3">
-        <v>44807</v>
+        <v>44855</v>
       </c>
       <c r="G19" s="3">
-        <v>44803</v>
+        <v>44841</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44796</v>
+        <v>44835</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1406,1003 +1454,1367 @@
         <v>32</v>
       </c>
       <c r="E20" s="5">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3">
-        <v>44827</v>
+        <v>44895</v>
       </c>
       <c r="G20" s="3">
-        <v>44803</v>
+        <v>44837</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G21" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>33</v>
+      <c r="A21" s="13">
+        <v>44826</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="15">
+        <v>179</v>
+      </c>
+      <c r="F21" s="13">
+        <v>44826</v>
+      </c>
+      <c r="G21" s="13">
+        <v>44826</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44792</v>
+        <v>44818</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E22" s="5">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
-        <v>44834</v>
+        <v>44879</v>
       </c>
       <c r="G22" s="3">
-        <v>44792</v>
+        <v>44818</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44783</v>
+        <v>44817</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F23" s="3">
-        <v>44835</v>
+        <v>44883</v>
       </c>
       <c r="G23" s="3">
-        <v>44783</v>
+        <v>44817</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44782</v>
+        <v>44813</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44811</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44813</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5">
+        <v>526</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44866</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44804</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="5">
-        <v>29</v>
-      </c>
-      <c r="F24" s="3">
-        <v>44835</v>
-      </c>
-      <c r="G24" s="3">
-        <v>44783</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="15">
-        <v>116</v>
-      </c>
-      <c r="F25" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G25" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H25" s="14" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="5">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44862</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5">
+        <v>117</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>44797</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="15">
+        <v>39</v>
+      </c>
+      <c r="F28" s="13">
+        <v>44797</v>
+      </c>
+      <c r="G28" s="13">
+        <v>44804</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="15">
-        <v>69</v>
-      </c>
-      <c r="F26" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G26" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>44768</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="15">
-        <v>78</v>
-      </c>
-      <c r="F27" s="13">
-        <v>44829</v>
-      </c>
-      <c r="G27" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="5">
-        <v>64</v>
-      </c>
-      <c r="F28" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G28" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44767</v>
+        <v>44797</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F29" s="3">
-        <v>44762</v>
+        <v>44833</v>
       </c>
       <c r="G29" s="3">
-        <v>44767</v>
+        <v>44803</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44767</v>
+        <v>44796</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="F30" s="3">
-        <v>44762</v>
+        <v>44807</v>
       </c>
       <c r="G30" s="3">
-        <v>44767</v>
+        <v>44803</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>44761</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="15">
-        <v>125</v>
-      </c>
-      <c r="F31" s="13">
-        <v>44804</v>
-      </c>
-      <c r="G31" s="13">
-        <v>44768</v>
-      </c>
-      <c r="H31" s="14" t="s">
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44761</v>
+        <v>44796</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E32" s="5">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3">
-        <v>44822</v>
+        <v>44807</v>
       </c>
       <c r="G32" s="3">
-        <v>44763</v>
+        <v>44803</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44762</v>
+        <v>44796</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E33" s="5">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="F33" s="3">
-        <v>44824</v>
+        <v>44807</v>
       </c>
       <c r="G33" s="3">
-        <v>44762</v>
+        <v>44803</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>44761</v>
+        <v>44796</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F34" s="3">
+        <v>44827</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
         <v>44807</v>
       </c>
-      <c r="G34" s="3">
-        <v>44761</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="11">
-        <v>83</v>
-      </c>
-      <c r="F35" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G35" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>71</v>
+      <c r="G35" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>44747</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="A36" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="11">
-        <v>45</v>
-      </c>
-      <c r="F36" s="9">
-        <v>44740</v>
-      </c>
-      <c r="G36" s="9">
-        <v>44747</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="E36" s="5">
+        <v>134</v>
+      </c>
+      <c r="F36" s="3">
+        <v>44834</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44792</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44743</v>
+        <v>44783</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E37" s="5">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F37" s="3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="G37" s="3">
-        <v>44743</v>
+        <v>44783</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44742</v>
+        <v>44782</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5">
+        <v>29</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>44770</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="15">
+        <v>116</v>
+      </c>
+      <c r="F39" s="13">
+        <v>44834</v>
+      </c>
+      <c r="G39" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="5">
-        <v>313</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44786</v>
-      </c>
-      <c r="G38" s="3">
-        <v>44742</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>44740</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="5">
-        <v>143</v>
-      </c>
-      <c r="F39" s="3">
-        <v>44774</v>
-      </c>
-      <c r="G39" s="3">
-        <v>44741</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>44736</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5">
-        <v>428</v>
-      </c>
-      <c r="F40" s="3">
-        <v>44736</v>
-      </c>
-      <c r="G40" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="E40" s="15">
+        <v>69</v>
+      </c>
+      <c r="F40" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G40" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="5">
-        <v>47</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G41" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>15</v>
+      <c r="A41" s="13">
+        <v>44768</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="15">
+        <v>78</v>
+      </c>
+      <c r="F41" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G41" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44729</v>
+        <v>44767</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E42" s="5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F42" s="3">
-        <v>44564</v>
+        <v>44762</v>
       </c>
       <c r="G42" s="3">
-        <v>44739</v>
+        <v>44767</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44718</v>
+        <v>44767</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E43" s="5">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F43" s="3">
-        <v>44738</v>
+        <v>44762</v>
       </c>
       <c r="G43" s="3">
-        <v>44720</v>
+        <v>44767</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44718</v>
+        <v>44767</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E44" s="5">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F44" s="3">
-        <v>44738</v>
+        <v>44762</v>
       </c>
       <c r="G44" s="3">
-        <v>44720</v>
+        <v>44767</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>44693</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="7">
-        <v>81</v>
-      </c>
-      <c r="F45" s="8">
-        <v>44756</v>
-      </c>
-      <c r="G45" s="8">
-        <v>44693</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>28</v>
+      <c r="A45" s="13">
+        <v>44761</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="15">
+        <v>125</v>
+      </c>
+      <c r="F45" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G45" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>44678</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="11">
-        <v>202</v>
-      </c>
-      <c r="F46" s="9">
-        <v>44736</v>
-      </c>
-      <c r="G46" s="9">
-        <v>44684</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>23</v>
+      <c r="A46" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="5">
+        <v>115</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44822</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44763</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44635</v>
+        <v>44762</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E47" s="5">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F47" s="3">
-        <v>44651</v>
+        <v>44824</v>
       </c>
       <c r="G47" s="3">
-        <v>44657</v>
+        <v>44762</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44635</v>
+        <v>44761</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="5">
+        <v>90</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G48" s="3">
+        <v>44761</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="5">
-        <v>26</v>
-      </c>
-      <c r="F48" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G48" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="E49" s="11">
+        <v>83</v>
+      </c>
+      <c r="F49" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G49" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>44747</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G49" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="5">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G50" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>33</v>
+      <c r="E50" s="11">
+        <v>45</v>
+      </c>
+      <c r="F50" s="9">
+        <v>44740</v>
+      </c>
+      <c r="G50" s="9">
+        <v>44747</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44648</v>
+        <v>44743</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E51" s="5">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="F51" s="3">
-        <v>44712</v>
+        <v>44805</v>
       </c>
       <c r="G51" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44628</v>
+        <v>44742</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E52" s="5">
-        <v>109</v>
+        <v>313</v>
       </c>
       <c r="F52" s="3">
-        <v>44687</v>
+        <v>44786</v>
       </c>
       <c r="G52" s="3">
-        <v>44635</v>
+        <v>44742</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44627</v>
+        <v>44740</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E53" s="5">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="F53" s="3">
-        <v>44627</v>
+        <v>44774</v>
       </c>
       <c r="G53" s="3">
-        <v>44642</v>
+        <v>44741</v>
       </c>
       <c r="H53" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5">
+        <v>428</v>
+      </c>
+      <c r="F54" s="3">
+        <v>44736</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>44621</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="5">
-        <v>206</v>
-      </c>
-      <c r="F54" s="3">
-        <v>44682</v>
-      </c>
-      <c r="G54" s="3">
-        <v>44621</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>44607</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="5">
-        <v>84</v>
-      </c>
       <c r="F55" s="3">
-        <v>44669</v>
+        <v>44794</v>
       </c>
       <c r="G55" s="3">
-        <v>44607</v>
+        <v>44739</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44589</v>
+        <v>44729</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E56" s="5">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="F56" s="3">
-        <v>44647</v>
+        <v>44564</v>
       </c>
       <c r="G56" s="3">
-        <v>44589</v>
+        <v>44739</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>44585</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="11">
-        <v>80</v>
-      </c>
-      <c r="F57" s="9">
-        <v>44572</v>
-      </c>
-      <c r="G57" s="9">
-        <v>44585</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>59</v>
+      <c r="A57" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="5">
+        <v>45</v>
+      </c>
+      <c r="F57" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G57" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="5">
+        <v>85</v>
+      </c>
+      <c r="F58" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G58" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="7">
+        <v>81</v>
+      </c>
+      <c r="F59" s="8">
+        <v>44756</v>
+      </c>
+      <c r="G59" s="8">
+        <v>44693</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>44678</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="11">
+        <v>202</v>
+      </c>
+      <c r="F60" s="9">
+        <v>44736</v>
+      </c>
+      <c r="G60" s="9">
+        <v>44684</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="5">
+        <v>31</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="5">
+        <v>26</v>
+      </c>
+      <c r="F62" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="5">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G63" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="5">
+        <v>19</v>
+      </c>
+      <c r="F64" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G64" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="5">
+        <v>122</v>
+      </c>
+      <c r="F65" s="3">
+        <v>44712</v>
+      </c>
+      <c r="G65" s="3">
+        <v>44652</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="5">
+        <v>109</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G66" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="5">
+        <v>62</v>
+      </c>
+      <c r="F67" s="3">
+        <v>44627</v>
+      </c>
+      <c r="G67" s="3">
+        <v>44642</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="5">
+        <v>206</v>
+      </c>
+      <c r="F68" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G68" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44607</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="5">
+        <v>84</v>
+      </c>
+      <c r="F69" s="3">
+        <v>44669</v>
+      </c>
+      <c r="G69" s="3">
+        <v>44607</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="5">
+        <v>178</v>
+      </c>
+      <c r="F70" s="3">
+        <v>44647</v>
+      </c>
+      <c r="G70" s="3">
+        <v>44589</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>44585</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="11">
+        <v>80</v>
+      </c>
+      <c r="F71" s="9">
+        <v>44572</v>
+      </c>
+      <c r="G71" s="9">
+        <v>44585</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>44567</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E72" s="5">
         <v>348</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F72" s="3">
         <v>44633</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G72" s="3">
         <v>44567</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4432B13B-EEF4-4F62-BB6A-D7DD557AB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1812AB29-DFFF-4B1D-89A5-A777E80A05F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740A6FE0-DD45-46DA-94EC-EBB348222527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="2460" yWindow="1605" windowWidth="21600" windowHeight="12735" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="146">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -460,13 +460,25 @@
   </si>
   <si>
     <t>Argo AI, LLC. (Austin 7th Street)</t>
+  </si>
+  <si>
+    <t>iBio CDMO</t>
+  </si>
+  <si>
+    <t>Brazos</t>
+  </si>
+  <si>
+    <t>Brazos Valley WDA</t>
+  </si>
+  <si>
+    <t>Bryan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +510,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -569,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,6 +629,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,29 +999,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44861</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44866</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44861</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>93</v>
+      <c r="A2" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="18">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16">
+        <v>44928</v>
+      </c>
+      <c r="G2" s="16">
+        <v>44867</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,7 +1029,7 @@
         <v>44861</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>91</v>
@@ -1012,7 +1038,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="5">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
         <v>44866</v>
@@ -1026,28 +1052,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G4" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1055,7 +1081,7 @@
         <v>44848</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>31</v>
@@ -1064,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <v>44916</v>
@@ -1081,7 +1107,7 @@
         <v>44848</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
@@ -1090,7 +1116,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
         <v>44916</v>
@@ -1107,7 +1133,7 @@
         <v>44848</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
@@ -1116,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
         <v>44916</v>
@@ -1133,7 +1159,7 @@
         <v>44848</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -1142,7 +1168,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <v>44916</v>
@@ -1159,16 +1185,16 @@
         <v>44848</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>44916</v>
@@ -1177,7 +1203,7 @@
         <v>44858</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1185,16 +1211,16 @@
         <v>44848</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>44916</v>
@@ -1203,7 +1229,7 @@
         <v>44858</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,7 +1237,7 @@
         <v>44848</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -1220,7 +1246,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F11" s="3">
         <v>44916</v>
@@ -1237,7 +1263,7 @@
         <v>44848</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
@@ -1263,7 +1289,7 @@
         <v>44848</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1272,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>44916</v>
@@ -1289,7 +1315,7 @@
         <v>44848</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -1298,13 +1324,13 @@
         <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
         <v>44916</v>
       </c>
       <c r="G14" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>33</v>
@@ -1315,7 +1341,7 @@
         <v>44848</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
@@ -1338,28 +1364,28 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G16" s="3">
-        <v>44847</v>
+        <v>44859</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,7 +1393,7 @@
         <v>44847</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
@@ -1376,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="5">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="F17" s="3">
         <v>44905</v>
@@ -1385,345 +1411,345 @@
         <v>44847</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E18" s="5">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3">
-        <v>44819</v>
+        <v>44905</v>
       </c>
       <c r="G18" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E19" s="5">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F19" s="3">
-        <v>44855</v>
+        <v>44819</v>
       </c>
       <c r="G19" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
+        <v>44841</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="5">
+        <v>85</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44855</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44841</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>44835</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>43</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>44895</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>44837</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>44826</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>179</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>44826</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>44826</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44818</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="5">
-        <v>64</v>
-      </c>
-      <c r="F22" s="3">
-        <v>44879</v>
-      </c>
-      <c r="G22" s="3">
-        <v>44818</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3">
-        <v>44883</v>
+        <v>44879</v>
       </c>
       <c r="G23" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E24" s="5">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3">
-        <v>44811</v>
+        <v>44883</v>
       </c>
       <c r="G24" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5">
-        <v>526</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3">
-        <v>44866</v>
+        <v>44811</v>
       </c>
       <c r="G25" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5">
-        <v>57</v>
+        <v>526</v>
       </c>
       <c r="F26" s="3">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="G26" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E27" s="5">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F27" s="3">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="G27" s="3">
         <v>44802</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5">
+        <v>117</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>44797</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>39</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>44797</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>44804</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H29" s="14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44797</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="5">
-        <v>55</v>
-      </c>
-      <c r="F29" s="3">
-        <v>44833</v>
-      </c>
-      <c r="G29" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E30" s="5">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F30" s="3">
-        <v>44807</v>
+        <v>44833</v>
       </c>
       <c r="G30" s="3">
         <v>44803</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1731,7 +1757,7 @@
         <v>44796</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1740,7 +1766,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F31" s="3">
         <v>44807</v>
@@ -1757,7 +1783,7 @@
         <v>44796</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1766,7 +1792,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3">
         <v>44807</v>
@@ -1783,7 +1809,7 @@
         <v>44796</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>31</v>
@@ -1792,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F33" s="3">
         <v>44807</v>
@@ -1809,7 +1835,7 @@
         <v>44796</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>31</v>
@@ -1818,10 +1844,10 @@
         <v>32</v>
       </c>
       <c r="E34" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F34" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G34" s="3">
         <v>44803</v>
@@ -1835,7 +1861,7 @@
         <v>44796</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1844,10 +1870,10 @@
         <v>32</v>
       </c>
       <c r="E35" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3">
-        <v>44807</v>
+        <v>44827</v>
       </c>
       <c r="G35" s="3">
         <v>44803</v>
@@ -1858,71 +1884,71 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="F36" s="3">
-        <v>44834</v>
+        <v>44807</v>
       </c>
       <c r="G36" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E37" s="5">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F37" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G37" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E38" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F38" s="3">
         <v>44835</v>
@@ -1931,111 +1957,111 @@
         <v>44783</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="15">
-        <v>116</v>
-      </c>
-      <c r="F39" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G39" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>23</v>
+      <c r="D39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="5">
+        <v>29</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E40" s="15">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F40" s="13">
-        <v>44867</v>
+        <v>44834</v>
       </c>
       <c r="G40" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="15">
+        <v>69</v>
+      </c>
+      <c r="F41" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G41" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>44768</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>78</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>44829</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>44770</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H42" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="5">
-        <v>64</v>
-      </c>
-      <c r="F42" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G42" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,16 +2069,16 @@
         <v>44767</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F43" s="3">
         <v>44762</v>
@@ -2061,7 +2087,7 @@
         <v>44767</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,16 +2095,16 @@
         <v>44767</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E44" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F44" s="3">
         <v>44762</v>
@@ -2087,345 +2113,345 @@
         <v>44767</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="5">
+        <v>92</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>44761</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>125</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>44804</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>44768</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H46" s="14" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="5">
-        <v>115</v>
-      </c>
-      <c r="F46" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G46" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E47" s="5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F47" s="3">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="G47" s="3">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="5">
+        <v>110</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G48" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>44761</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>90</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>44807</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>44761</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="11">
-        <v>83</v>
-      </c>
-      <c r="F49" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G49" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="11">
+        <v>83</v>
+      </c>
+      <c r="F50" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G50" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>44747</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>45</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>44740</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>44747</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="5">
-        <v>36</v>
-      </c>
-      <c r="F51" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G51" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" s="5">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="F52" s="3">
-        <v>44786</v>
+        <v>44805</v>
       </c>
       <c r="G52" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E53" s="5">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="F53" s="3">
-        <v>44774</v>
+        <v>44786</v>
       </c>
       <c r="G53" s="3">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" s="5">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3">
-        <v>44736</v>
+        <v>44774</v>
       </c>
       <c r="G54" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" s="5">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="F55" s="3">
-        <v>44794</v>
+        <v>44736</v>
       </c>
       <c r="G55" s="3">
         <v>44739</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E56" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F56" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G56" s="3">
         <v>44739</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44718</v>
+        <v>44729</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E57" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F57" s="3">
-        <v>44738</v>
+        <v>44564</v>
       </c>
       <c r="G57" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2433,7 +2459,7 @@
         <v>44718</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>21</v>
@@ -2442,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="E58" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F58" s="3">
         <v>44738</v>
@@ -2455,81 +2481,81 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="5">
+        <v>85</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
         <v>44693</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>81</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F60" s="8">
         <v>44756</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <v>44693</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>44678</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>202</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>44736</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="9">
         <v>44684</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H61" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="5">
-        <v>31</v>
-      </c>
-      <c r="F61" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G61" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,7 +2563,7 @@
         <v>44635</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>31</v>
@@ -2546,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="E62" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F62" s="3">
         <v>44651</v>
@@ -2563,7 +2589,7 @@
         <v>44635</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>31</v>
@@ -2572,7 +2598,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F63" s="3">
         <v>44651</v>
@@ -2589,7 +2615,7 @@
         <v>44635</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>31</v>
@@ -2598,7 +2624,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3">
         <v>44651</v>
@@ -2612,209 +2638,235 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="5">
+        <v>19</v>
+      </c>
+      <c r="F65" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G65" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>44648</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>122</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="3">
         <v>44712</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G66" s="3">
         <v>44652</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44628</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="5">
         <v>109</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>44687</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="3">
         <v>44635</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>44627</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="5">
         <v>62</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F68" s="3">
         <v>44627</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G68" s="3">
         <v>44642</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>44621</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="5">
-        <v>206</v>
-      </c>
-      <c r="F68" s="3">
-        <v>44682</v>
-      </c>
-      <c r="G68" s="3">
-        <v>44621</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="5">
+        <v>206</v>
+      </c>
+      <c r="F69" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G69" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>44607</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>84</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="3">
         <v>44669</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G70" s="3">
         <v>44607</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>44589</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="5">
         <v>178</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <v>44647</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <v>44589</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>44585</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>80</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>44572</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="9">
         <v>44585</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H72" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>44567</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="5">
         <v>348</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <v>44633</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="3">
         <v>44567</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Communications\WARN letters\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740A6FE0-DD45-46DA-94EC-EBB348222527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FD121F-57A4-4417-9E04-5C574EEB6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1605" windowWidth="21600" windowHeight="12735" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="31395" yWindow="1515" windowWidth="21600" windowHeight="12060" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="154">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -472,6 +472,30 @@
   </si>
   <si>
     <t>Bryan</t>
+  </si>
+  <si>
+    <t>Hallmark Financial Services</t>
+  </si>
+  <si>
+    <t>COSMAX NBT USA, INC #1</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>Sodexo - CHI St Luke's Baylor Medical Center</t>
+  </si>
+  <si>
+    <t>Sodexo - CHI Saint Luke's McNair</t>
+  </si>
+  <si>
+    <t>Hill Defense and Federal Solutions</t>
+  </si>
+  <si>
+    <t>Bexar</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
   </si>
 </sst>
 </file>
@@ -954,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,211 +1023,211 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>44865</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="18">
-        <v>50</v>
-      </c>
-      <c r="F2" s="16">
-        <v>44928</v>
-      </c>
-      <c r="G2" s="16">
-        <v>44867</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>145</v>
+      <c r="A2" s="3">
+        <v>44845</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5">
+        <v>134</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44907</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44873</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44861</v>
+        <v>44823</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
-        <v>44866</v>
+        <v>44910</v>
       </c>
       <c r="G3" s="3">
-        <v>44861</v>
+        <v>44875</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44861</v>
+        <v>44823</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F4" s="3">
-        <v>44866</v>
+        <v>44910</v>
       </c>
       <c r="G4" s="3">
-        <v>44861</v>
+        <v>44875</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44848</v>
+        <v>44876</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3">
-        <v>44916</v>
+        <v>44862</v>
       </c>
       <c r="G5" s="3">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44848</v>
+        <v>44876</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3">
-        <v>44916</v>
+        <v>44926</v>
       </c>
       <c r="G6" s="3">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44848</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44916</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44858</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
+      <c r="A7" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="18">
+        <v>50</v>
+      </c>
+      <c r="F7" s="16">
+        <v>44928</v>
+      </c>
+      <c r="G7" s="16">
+        <v>44867</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G8" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G9" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,16 +1235,16 @@
         <v>44848</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3">
         <v>44916</v>
@@ -1229,7 +1253,7 @@
         <v>44858</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,7 +1261,7 @@
         <v>44848</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -1246,7 +1270,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
         <v>44916</v>
@@ -1263,7 +1287,7 @@
         <v>44848</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
@@ -1272,7 +1296,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <v>44916</v>
@@ -1289,7 +1313,7 @@
         <v>44848</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1298,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>44916</v>
@@ -1315,7 +1339,7 @@
         <v>44848</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -1324,7 +1348,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>44916</v>
@@ -1341,25 +1365,25 @@
         <v>44848</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>44916</v>
       </c>
       <c r="G15" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,7 +1391,7 @@
         <v>44848</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1376,13 +1400,13 @@
         <v>32</v>
       </c>
       <c r="E16" s="5">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="F16" s="3">
         <v>44916</v>
       </c>
       <c r="G16" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>33</v>
@@ -1390,114 +1414,114 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G17" s="3">
-        <v>44847</v>
+        <v>44858</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G18" s="3">
-        <v>44847</v>
+        <v>44858</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44838</v>
+        <v>44848</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>44819</v>
+        <v>44916</v>
       </c>
       <c r="G19" s="3">
-        <v>44838</v>
+        <v>44858</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44841</v>
+        <v>44848</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F20" s="3">
-        <v>44855</v>
+        <v>44916</v>
       </c>
       <c r="G20" s="3">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44835</v>
+        <v>44848</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -1506,310 +1530,310 @@
         <v>32</v>
       </c>
       <c r="E21" s="5">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3">
-        <v>44895</v>
+        <v>44916</v>
       </c>
       <c r="G21" s="3">
-        <v>44837</v>
+        <v>44859</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>44826</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="15">
-        <v>179</v>
-      </c>
-      <c r="F22" s="13">
-        <v>44826</v>
-      </c>
-      <c r="G22" s="13">
-        <v>44826</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>117</v>
+      <c r="A22" s="3">
+        <v>44847</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5">
+        <v>206</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44905</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44847</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44818</v>
+        <v>44847</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E23" s="5">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3">
-        <v>44879</v>
+        <v>44905</v>
       </c>
       <c r="G23" s="3">
-        <v>44818</v>
+        <v>44847</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44817</v>
+        <v>44838</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E24" s="5">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F24" s="3">
-        <v>44883</v>
+        <v>44819</v>
       </c>
       <c r="G24" s="3">
-        <v>44817</v>
+        <v>44838</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44813</v>
+        <v>44841</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E25" s="5">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F25" s="3">
-        <v>44811</v>
+        <v>44855</v>
       </c>
       <c r="G25" s="3">
-        <v>44813</v>
+        <v>44841</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44804</v>
+        <v>44835</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5">
-        <v>526</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="G26" s="3">
-        <v>44804</v>
+        <v>44837</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>44802</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="5">
-        <v>57</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44862</v>
-      </c>
-      <c r="G27" s="3">
-        <v>44802</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>102</v>
+      <c r="A27" s="13">
+        <v>44826</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="15">
+        <v>179</v>
+      </c>
+      <c r="F27" s="13">
+        <v>44826</v>
+      </c>
+      <c r="G27" s="13">
+        <v>44826</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44798</v>
+        <v>44818</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E28" s="5">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F28" s="3">
-        <v>44859</v>
+        <v>44879</v>
       </c>
       <c r="G28" s="3">
-        <v>44802</v>
+        <v>44818</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>44797</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="3">
+        <v>44817</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="15">
-        <v>39</v>
-      </c>
-      <c r="F29" s="13">
-        <v>44797</v>
-      </c>
-      <c r="G29" s="13">
-        <v>44804</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>23</v>
+      <c r="E29" s="5">
+        <v>49</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44883</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44817</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44797</v>
+        <v>44813</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3">
-        <v>44833</v>
+        <v>44811</v>
       </c>
       <c r="G30" s="3">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44796</v>
+        <v>44804</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E31" s="5">
-        <v>13</v>
+        <v>526</v>
       </c>
       <c r="F31" s="3">
-        <v>44807</v>
+        <v>44866</v>
       </c>
       <c r="G31" s="3">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44796</v>
+        <v>44802</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E32" s="5">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F32" s="3">
-        <v>44807</v>
+        <v>44862</v>
       </c>
       <c r="G32" s="3">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44796</v>
+        <v>44798</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>31</v>
@@ -1818,68 +1842,68 @@
         <v>32</v>
       </c>
       <c r="E33" s="5">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F33" s="3">
-        <v>44807</v>
+        <v>44859</v>
       </c>
       <c r="G33" s="3">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="5">
-        <v>13</v>
-      </c>
-      <c r="F34" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G34" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>33</v>
+      <c r="A34" s="13">
+        <v>44797</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="15">
+        <v>39</v>
+      </c>
+      <c r="F34" s="13">
+        <v>44797</v>
+      </c>
+      <c r="G34" s="13">
+        <v>44804</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E35" s="5">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F35" s="3">
-        <v>44827</v>
+        <v>44833</v>
       </c>
       <c r="G35" s="3">
         <v>44803</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1887,7 +1911,7 @@
         <v>44796</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1896,7 +1920,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F36" s="3">
         <v>44807</v>
@@ -1910,296 +1934,296 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="F37" s="3">
-        <v>44834</v>
+        <v>44807</v>
       </c>
       <c r="G37" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44783</v>
+        <v>44796</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E38" s="5">
         <v>9</v>
       </c>
       <c r="F38" s="3">
-        <v>44835</v>
+        <v>44807</v>
       </c>
       <c r="G38" s="3">
-        <v>44783</v>
+        <v>44803</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44782</v>
+        <v>44796</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>44827</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="5">
-        <v>29</v>
-      </c>
-      <c r="F39" s="3">
-        <v>44835</v>
-      </c>
-      <c r="G39" s="3">
-        <v>44783</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="E42" s="5">
+        <v>134</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44834</v>
+      </c>
+      <c r="G42" s="3">
+        <v>44792</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="15">
-        <v>116</v>
-      </c>
-      <c r="F40" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G40" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="15">
-        <v>69</v>
-      </c>
-      <c r="F41" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G41" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>44768</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="15">
-        <v>78</v>
-      </c>
-      <c r="F42" s="13">
-        <v>44829</v>
-      </c>
-      <c r="G42" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44767</v>
+        <v>44783</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="E43" s="5">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3">
-        <v>44762</v>
+        <v>44835</v>
       </c>
       <c r="G43" s="3">
-        <v>44767</v>
+        <v>44783</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44767</v>
+        <v>44782</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="E44" s="5">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F44" s="3">
-        <v>44762</v>
+        <v>44835</v>
       </c>
       <c r="G44" s="3">
-        <v>44767</v>
+        <v>44783</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="5">
-        <v>92</v>
-      </c>
-      <c r="F45" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G45" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>82</v>
+      <c r="A45" s="13">
+        <v>44770</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="15">
+        <v>116</v>
+      </c>
+      <c r="F45" s="13">
+        <v>44834</v>
+      </c>
+      <c r="G45" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
-        <v>44761</v>
+        <v>44769</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E46" s="15">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="F46" s="13">
-        <v>44804</v>
+        <v>44867</v>
       </c>
       <c r="G46" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>44768</v>
       </c>
-      <c r="H46" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="15">
         <v>78</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="5">
-        <v>115</v>
-      </c>
-      <c r="F47" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G47" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>80</v>
+      <c r="F47" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G47" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44762</v>
+        <v>44767</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>21</v>
@@ -2208,232 +2232,232 @@
         <v>22</v>
       </c>
       <c r="E48" s="5">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F48" s="3">
-        <v>44824</v>
+        <v>44762</v>
       </c>
       <c r="G48" s="3">
-        <v>44762</v>
+        <v>44767</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="5">
+        <v>72</v>
+      </c>
+      <c r="F49" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="5">
+        <v>92</v>
+      </c>
+      <c r="F50" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G50" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
         <v>44761</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="5">
-        <v>90</v>
-      </c>
-      <c r="F49" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G49" s="3">
-        <v>44761</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="B51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="11">
-        <v>83</v>
-      </c>
-      <c r="F50" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G50" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>44747</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="11">
-        <v>45</v>
-      </c>
-      <c r="F51" s="9">
-        <v>44740</v>
-      </c>
-      <c r="G51" s="9">
-        <v>44747</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>17</v>
+      <c r="E51" s="15">
+        <v>125</v>
+      </c>
+      <c r="F51" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G51" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44743</v>
+        <v>44761</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E52" s="5">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="F52" s="3">
-        <v>44805</v>
+        <v>44822</v>
       </c>
       <c r="G52" s="3">
-        <v>44743</v>
+        <v>44763</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44742</v>
+        <v>44762</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E53" s="5">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="F53" s="3">
-        <v>44786</v>
+        <v>44824</v>
       </c>
       <c r="G53" s="3">
-        <v>44742</v>
+        <v>44762</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="5">
+        <v>90</v>
+      </c>
+      <c r="F54" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44761</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="11">
+        <v>83</v>
+      </c>
+      <c r="F55" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G55" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>44747</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="11">
+        <v>45</v>
+      </c>
+      <c r="F56" s="9">
         <v>44740</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="G56" s="9">
+        <v>44747</v>
+      </c>
+      <c r="H56" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="5">
-        <v>143</v>
-      </c>
-      <c r="F54" s="3">
-        <v>44774</v>
-      </c>
-      <c r="G54" s="3">
-        <v>44741</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>44736</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5">
-        <v>428</v>
-      </c>
-      <c r="F55" s="3">
-        <v>44736</v>
-      </c>
-      <c r="G55" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="5">
-        <v>47</v>
-      </c>
-      <c r="F56" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G56" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44729</v>
+        <v>44743</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>17</v>
@@ -2442,431 +2466,561 @@
         <v>18</v>
       </c>
       <c r="E57" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F57" s="3">
-        <v>44564</v>
+        <v>44805</v>
       </c>
       <c r="G57" s="3">
-        <v>44739</v>
+        <v>44743</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44718</v>
+        <v>44742</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E58" s="5">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="F58" s="3">
-        <v>44738</v>
+        <v>44786</v>
       </c>
       <c r="G58" s="3">
-        <v>44720</v>
+        <v>44742</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44718</v>
+        <v>44740</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E59" s="5">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F59" s="3">
-        <v>44738</v>
+        <v>44774</v>
       </c>
       <c r="G59" s="3">
-        <v>44720</v>
+        <v>44741</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>44693</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="7">
-        <v>81</v>
-      </c>
-      <c r="F60" s="8">
-        <v>44756</v>
-      </c>
-      <c r="G60" s="8">
-        <v>44693</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>28</v>
+      <c r="A60" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5">
+        <v>428</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44736</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>44678</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="11">
-        <v>202</v>
-      </c>
-      <c r="F61" s="9">
-        <v>44736</v>
-      </c>
-      <c r="G61" s="9">
-        <v>44684</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>23</v>
+      <c r="A61" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="5">
+        <v>47</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44794</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44635</v>
+        <v>44729</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="5">
         <v>32</v>
       </c>
-      <c r="E62" s="5">
-        <v>31</v>
-      </c>
       <c r="F62" s="3">
-        <v>44651</v>
+        <v>44564</v>
       </c>
       <c r="G62" s="3">
-        <v>44657</v>
+        <v>44739</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44635</v>
+        <v>44718</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E63" s="5">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F63" s="3">
-        <v>44651</v>
+        <v>44738</v>
       </c>
       <c r="G63" s="3">
-        <v>44657</v>
+        <v>44720</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="5">
+        <v>85</v>
+      </c>
+      <c r="F64" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G64" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="7">
+        <v>81</v>
+      </c>
+      <c r="F65" s="8">
+        <v>44756</v>
+      </c>
+      <c r="G65" s="8">
+        <v>44693</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>44678</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="11">
+        <v>202</v>
+      </c>
+      <c r="F66" s="9">
+        <v>44736</v>
+      </c>
+      <c r="G66" s="9">
+        <v>44684</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>44635</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="B67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="5">
-        <v>18</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E67" s="5">
+        <v>31</v>
+      </c>
+      <c r="F67" s="3">
         <v>44651</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G67" s="3">
         <v>44657</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="5">
-        <v>19</v>
-      </c>
-      <c r="F65" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G65" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>44648</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="5">
-        <v>122</v>
-      </c>
-      <c r="F66" s="3">
-        <v>44712</v>
-      </c>
-      <c r="G66" s="3">
-        <v>44652</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>44628</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="5">
-        <v>109</v>
-      </c>
-      <c r="F67" s="3">
-        <v>44687</v>
-      </c>
-      <c r="G67" s="3">
-        <v>44635</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E68" s="5">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F68" s="3">
-        <v>44627</v>
+        <v>44651</v>
       </c>
       <c r="G68" s="3">
-        <v>44642</v>
+        <v>44657</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44621</v>
+        <v>44635</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E69" s="5">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="F69" s="3">
-        <v>44682</v>
+        <v>44651</v>
       </c>
       <c r="G69" s="3">
-        <v>44621</v>
+        <v>44657</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E70" s="5">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F70" s="3">
-        <v>44669</v>
+        <v>44651</v>
       </c>
       <c r="G70" s="3">
-        <v>44607</v>
+        <v>44657</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44589</v>
+        <v>44648</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E71" s="5">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="F71" s="3">
-        <v>44647</v>
+        <v>44712</v>
       </c>
       <c r="G71" s="3">
-        <v>44589</v>
+        <v>44652</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>44585</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="11">
-        <v>80</v>
-      </c>
-      <c r="F72" s="9">
-        <v>44572</v>
-      </c>
-      <c r="G72" s="9">
-        <v>44585</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="5">
+        <v>109</v>
+      </c>
+      <c r="F72" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G72" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="5">
+        <v>62</v>
+      </c>
+      <c r="F73" s="3">
+        <v>44627</v>
+      </c>
+      <c r="G73" s="3">
+        <v>44642</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="5">
+        <v>206</v>
+      </c>
+      <c r="F74" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G74" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44607</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="5">
+        <v>84</v>
+      </c>
+      <c r="F75" s="3">
+        <v>44669</v>
+      </c>
+      <c r="G75" s="3">
+        <v>44607</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44589</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="5">
+        <v>178</v>
+      </c>
+      <c r="F76" s="3">
+        <v>44647</v>
+      </c>
+      <c r="G76" s="3">
+        <v>44589</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>44585</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="11">
+        <v>80</v>
+      </c>
+      <c r="F77" s="9">
+        <v>44572</v>
+      </c>
+      <c r="G77" s="9">
+        <v>44585</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>44567</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E78" s="5">
         <v>348</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F78" s="3">
         <v>44633</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G78" s="3">
         <v>44567</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FD121F-57A4-4417-9E04-5C574EEB6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{56FD121F-57A4-4417-9E04-5C574EEB6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6826BA87-BEB8-4341-A53E-77390E099A84}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1515" windowWidth="21600" windowHeight="12060" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -496,6 +496,24 @@
   </si>
   <si>
     <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Meta Platforms, Inc.(W,6th)</t>
+  </si>
+  <si>
+    <t>Meta Platforms, Inc. (Mcallen Pass)</t>
+  </si>
+  <si>
+    <t>Meta Platforms, Inc, (Alterra Pkwy.)</t>
+  </si>
+  <si>
+    <t>Meta Platforms, Inc. (West 3rd)</t>
+  </si>
+  <si>
+    <t>Bedding Acquisition, LLC</t>
+  </si>
+  <si>
+    <t>Grand Prairie</t>
   </si>
 </sst>
 </file>
@@ -978,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,218 +1042,218 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44845</v>
+        <v>44883</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3">
-        <v>44907</v>
+        <v>44883</v>
       </c>
       <c r="G2" s="3">
-        <v>44873</v>
+        <v>44883</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44823</v>
+        <v>44881</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3">
-        <v>44910</v>
+        <v>44942</v>
       </c>
       <c r="G3" s="3">
-        <v>44875</v>
+        <v>44883</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44823</v>
+        <v>44881</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="F4" s="3">
-        <v>44910</v>
+        <v>44939</v>
       </c>
       <c r="G4" s="3">
-        <v>44875</v>
+        <v>44881</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>44862</v>
+        <v>44939</v>
       </c>
       <c r="G5" s="3">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
-        <v>44926</v>
+        <v>44939</v>
       </c>
       <c r="G6" s="3">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>44865</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="A7" s="3">
+        <v>44881</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="5">
         <v>50</v>
       </c>
-      <c r="F7" s="16">
-        <v>44928</v>
-      </c>
-      <c r="G7" s="16">
-        <v>44867</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>145</v>
+      <c r="F7" s="3">
+        <v>44939</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44881</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44861</v>
+        <v>44845</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="F8" s="3">
-        <v>44866</v>
+        <v>44907</v>
       </c>
       <c r="G8" s="3">
-        <v>44861</v>
+        <v>44873</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44861</v>
+        <v>44823</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
-        <v>44866</v>
+        <v>44910</v>
       </c>
       <c r="G9" s="3">
-        <v>44861</v>
+        <v>44875</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44848</v>
+        <v>44823</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
@@ -1244,13 +1262,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="F10" s="3">
-        <v>44916</v>
+        <v>44910</v>
       </c>
       <c r="G10" s="3">
-        <v>44858</v>
+        <v>44875</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>33</v>
@@ -1258,132 +1276,132 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44848</v>
+        <v>44876</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3">
-        <v>44916</v>
+        <v>44862</v>
       </c>
       <c r="G11" s="3">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44848</v>
+        <v>44876</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3">
-        <v>44916</v>
+        <v>44926</v>
       </c>
       <c r="G12" s="3">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44848</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>44916</v>
-      </c>
-      <c r="G13" s="3">
-        <v>44858</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>33</v>
+      <c r="A13" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="18">
+        <v>50</v>
+      </c>
+      <c r="F13" s="16">
+        <v>44928</v>
+      </c>
+      <c r="G13" s="16">
+        <v>44867</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G14" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E15" s="5">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G15" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1391,7 +1409,7 @@
         <v>44848</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -1400,7 +1418,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="5">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3">
         <v>44916</v>
@@ -1417,7 +1435,7 @@
         <v>44848</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
@@ -1426,7 +1444,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>44916</v>
@@ -1443,7 +1461,7 @@
         <v>44848</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
@@ -1452,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>44916</v>
@@ -1469,7 +1487,7 @@
         <v>44848</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -1478,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
         <v>44916</v>
@@ -1495,7 +1513,7 @@
         <v>44848</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1504,13 +1522,13 @@
         <v>32</v>
       </c>
       <c r="E20" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>44916</v>
       </c>
       <c r="G20" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>33</v>
@@ -1521,137 +1539,137 @@
         <v>44848</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>44916</v>
       </c>
       <c r="G21" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F22" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G22" s="3">
-        <v>44847</v>
+        <v>44858</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G23" s="3">
-        <v>44847</v>
+        <v>44858</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>44838</v>
+        <v>44848</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>44819</v>
+        <v>44916</v>
       </c>
       <c r="G24" s="3">
-        <v>44838</v>
+        <v>44858</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44841</v>
+        <v>44848</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
-        <v>44855</v>
+        <v>44916</v>
       </c>
       <c r="G25" s="3">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44835</v>
+        <v>44848</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1660,336 +1678,336 @@
         <v>32</v>
       </c>
       <c r="E26" s="5">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F26" s="3">
-        <v>44895</v>
+        <v>44916</v>
       </c>
       <c r="G26" s="3">
-        <v>44837</v>
+        <v>44859</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>44826</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="15">
-        <v>179</v>
-      </c>
-      <c r="F27" s="13">
-        <v>44826</v>
-      </c>
-      <c r="G27" s="13">
-        <v>44826</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>117</v>
+      <c r="A27" s="3">
+        <v>44848</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44916</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44859</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44818</v>
+        <v>44847</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E28" s="5">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="F28" s="3">
-        <v>44879</v>
+        <v>44905</v>
       </c>
       <c r="G28" s="3">
-        <v>44818</v>
+        <v>44847</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44817</v>
+        <v>44847</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F29" s="3">
-        <v>44883</v>
+        <v>44905</v>
       </c>
       <c r="G29" s="3">
-        <v>44817</v>
+        <v>44847</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44813</v>
+        <v>44838</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E30" s="5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F30" s="3">
-        <v>44811</v>
+        <v>44819</v>
       </c>
       <c r="G30" s="3">
-        <v>44813</v>
+        <v>44838</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44804</v>
+        <v>44841</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E31" s="5">
-        <v>526</v>
+        <v>85</v>
       </c>
       <c r="F31" s="3">
-        <v>44866</v>
+        <v>44855</v>
       </c>
       <c r="G31" s="3">
-        <v>44804</v>
+        <v>44841</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44802</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E32" s="5">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F32" s="3">
-        <v>44862</v>
+        <v>44895</v>
       </c>
       <c r="G32" s="3">
-        <v>44802</v>
+        <v>44837</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>44798</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="A33" s="13">
+        <v>44826</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="15">
+        <v>179</v>
+      </c>
+      <c r="F33" s="13">
+        <v>44826</v>
+      </c>
+      <c r="G33" s="13">
+        <v>44826</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="3">
-        <v>44859</v>
-      </c>
-      <c r="G33" s="3">
-        <v>44802</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>44797</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="15">
-        <v>39</v>
-      </c>
-      <c r="F34" s="13">
-        <v>44797</v>
-      </c>
-      <c r="G34" s="13">
-        <v>44804</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>23</v>
+      <c r="A34" s="3">
+        <v>44818</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="5">
+        <v>64</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44879</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44818</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44797</v>
+        <v>44817</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E35" s="5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F35" s="3">
-        <v>44833</v>
+        <v>44883</v>
       </c>
       <c r="G35" s="3">
-        <v>44803</v>
+        <v>44817</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44796</v>
+        <v>44813</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="5">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F36" s="3">
-        <v>44807</v>
+        <v>44811</v>
       </c>
       <c r="G36" s="3">
-        <v>44803</v>
+        <v>44813</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44796</v>
+        <v>44804</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E37" s="5">
-        <v>5</v>
+        <v>526</v>
       </c>
       <c r="F37" s="3">
-        <v>44807</v>
+        <v>44866</v>
       </c>
       <c r="G37" s="3">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44796</v>
+        <v>44802</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E38" s="5">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F38" s="3">
-        <v>44807</v>
+        <v>44862</v>
       </c>
       <c r="G38" s="3">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44796</v>
+        <v>44798</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>31</v>
@@ -1998,1029 +2016,1185 @@
         <v>32</v>
       </c>
       <c r="E39" s="5">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F39" s="3">
-        <v>44807</v>
+        <v>44859</v>
       </c>
       <c r="G39" s="3">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>44796</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="5">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3">
-        <v>44827</v>
-      </c>
-      <c r="G40" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>33</v>
+      <c r="A40" s="13">
+        <v>44797</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="15">
+        <v>39</v>
+      </c>
+      <c r="F40" s="13">
+        <v>44797</v>
+      </c>
+      <c r="G40" s="13">
+        <v>44804</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E41" s="5">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F41" s="3">
-        <v>44807</v>
+        <v>44833</v>
       </c>
       <c r="G41" s="3">
         <v>44803</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E42" s="5">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F42" s="3">
-        <v>44834</v>
+        <v>44807</v>
       </c>
       <c r="G42" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44783</v>
+        <v>44796</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F43" s="3">
-        <v>44835</v>
+        <v>44807</v>
       </c>
       <c r="G43" s="3">
-        <v>44783</v>
+        <v>44803</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44782</v>
+        <v>44796</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E44" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3">
-        <v>44835</v>
+        <v>44807</v>
       </c>
       <c r="G44" s="3">
-        <v>44783</v>
+        <v>44803</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="15">
-        <v>116</v>
-      </c>
-      <c r="F45" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G45" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>23</v>
+      <c r="A45" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>44769</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="5">
         <v>9</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="15">
-        <v>69</v>
-      </c>
-      <c r="F46" s="13">
-        <v>44867</v>
-      </c>
-      <c r="G46" s="13">
-        <v>44769</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>11</v>
+      <c r="F46" s="3">
+        <v>44827</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>44768</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="15">
-        <v>78</v>
-      </c>
-      <c r="F47" s="13">
-        <v>44829</v>
-      </c>
-      <c r="G47" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>93</v>
+      <c r="A47" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="5">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44807</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44803</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44767</v>
+        <v>44792</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E48" s="5">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F48" s="3">
-        <v>44762</v>
+        <v>44834</v>
       </c>
       <c r="G48" s="3">
-        <v>44767</v>
+        <v>44792</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44767</v>
+        <v>44783</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E49" s="5">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F49" s="3">
-        <v>44762</v>
+        <v>44835</v>
       </c>
       <c r="G49" s="3">
-        <v>44767</v>
+        <v>44783</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44767</v>
+        <v>44782</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E50" s="5">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F50" s="3">
-        <v>44762</v>
+        <v>44835</v>
       </c>
       <c r="G50" s="3">
-        <v>44767</v>
+        <v>44783</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <v>44761</v>
+        <v>44770</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E51" s="15">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F51" s="13">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="G51" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="15">
+        <v>69</v>
+      </c>
+      <c r="F52" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G52" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
         <v>44768</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B53" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="15">
         <v>78</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="5">
-        <v>115</v>
-      </c>
-      <c r="F52" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G52" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>44762</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="5">
-        <v>110</v>
-      </c>
-      <c r="F53" s="3">
-        <v>44824</v>
-      </c>
-      <c r="G53" s="3">
-        <v>44762</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>76</v>
+      <c r="F53" s="13">
+        <v>44829</v>
+      </c>
+      <c r="G53" s="13">
+        <v>44770</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="5">
+        <v>64</v>
+      </c>
+      <c r="F54" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="5">
+        <v>72</v>
+      </c>
+      <c r="F55" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G55" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="5">
+        <v>92</v>
+      </c>
+      <c r="F56" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G56" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
         <v>44761</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="5">
-        <v>90</v>
-      </c>
-      <c r="F54" s="3">
-        <v>44807</v>
-      </c>
-      <c r="G54" s="3">
-        <v>44761</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="B57" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="11">
-        <v>83</v>
-      </c>
-      <c r="F55" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G55" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>44747</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="11">
-        <v>45</v>
-      </c>
-      <c r="F56" s="9">
-        <v>44740</v>
-      </c>
-      <c r="G56" s="9">
-        <v>44747</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="5">
-        <v>36</v>
-      </c>
-      <c r="F57" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G57" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>17</v>
+      <c r="E57" s="15">
+        <v>125</v>
+      </c>
+      <c r="F57" s="13">
+        <v>44804</v>
+      </c>
+      <c r="G57" s="13">
+        <v>44768</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>44742</v>
+        <v>44761</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E58" s="5">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="F58" s="3">
-        <v>44786</v>
+        <v>44822</v>
       </c>
       <c r="G58" s="3">
-        <v>44742</v>
+        <v>44763</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44740</v>
+        <v>44762</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E59" s="5">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F59" s="3">
-        <v>44774</v>
+        <v>44824</v>
       </c>
       <c r="G59" s="3">
-        <v>44741</v>
+        <v>44762</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44736</v>
+        <v>44761</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E60" s="5">
-        <v>428</v>
+        <v>90</v>
       </c>
       <c r="F60" s="3">
-        <v>44736</v>
+        <v>44807</v>
       </c>
       <c r="G60" s="3">
-        <v>44739</v>
+        <v>44761</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>44735</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="5">
-        <v>47</v>
-      </c>
-      <c r="F61" s="3">
-        <v>44794</v>
-      </c>
-      <c r="G61" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>15</v>
+      <c r="A61" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="11">
+        <v>83</v>
+      </c>
+      <c r="F61" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G61" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>44729</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="A62" s="9">
+        <v>44747</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="5">
-        <v>32</v>
-      </c>
-      <c r="F62" s="3">
-        <v>44564</v>
-      </c>
-      <c r="G62" s="3">
-        <v>44739</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>19</v>
+      <c r="E62" s="11">
+        <v>45</v>
+      </c>
+      <c r="F62" s="9">
+        <v>44740</v>
+      </c>
+      <c r="G62" s="9">
+        <v>44747</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44718</v>
+        <v>44743</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E63" s="5">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F63" s="3">
-        <v>44738</v>
+        <v>44805</v>
       </c>
       <c r="G63" s="3">
-        <v>44720</v>
+        <v>44743</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44718</v>
+        <v>44742</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E64" s="5">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="F64" s="3">
-        <v>44738</v>
+        <v>44786</v>
       </c>
       <c r="G64" s="3">
-        <v>44720</v>
+        <v>44742</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>44693</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="7">
-        <v>81</v>
-      </c>
-      <c r="F65" s="8">
-        <v>44756</v>
-      </c>
-      <c r="G65" s="8">
-        <v>44693</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>28</v>
+      <c r="A65" s="3">
+        <v>44740</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="5">
+        <v>143</v>
+      </c>
+      <c r="F65" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G65" s="3">
+        <v>44741</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>44678</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="11">
-        <v>202</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="A66" s="3">
         <v>44736</v>
       </c>
-      <c r="G66" s="9">
-        <v>44684</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>23</v>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="5">
+        <v>428</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44736</v>
+      </c>
+      <c r="G66" s="3">
+        <v>44739</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44635</v>
+        <v>44735</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E67" s="5">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F67" s="3">
-        <v>44651</v>
+        <v>44794</v>
       </c>
       <c r="G67" s="3">
-        <v>44657</v>
+        <v>44739</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44635</v>
+        <v>44729</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="5">
         <v>32</v>
       </c>
-      <c r="E68" s="5">
-        <v>26</v>
-      </c>
       <c r="F68" s="3">
-        <v>44651</v>
+        <v>44564</v>
       </c>
       <c r="G68" s="3">
-        <v>44657</v>
+        <v>44739</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44635</v>
+        <v>44718</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E69" s="5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F69" s="3">
-        <v>44651</v>
+        <v>44738</v>
       </c>
       <c r="G69" s="3">
-        <v>44657</v>
+        <v>44720</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44635</v>
+        <v>44718</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E70" s="5">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F70" s="3">
-        <v>44651</v>
+        <v>44738</v>
       </c>
       <c r="G70" s="3">
-        <v>44657</v>
+        <v>44720</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>44648</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="5">
-        <v>122</v>
-      </c>
-      <c r="F71" s="3">
-        <v>44712</v>
-      </c>
-      <c r="G71" s="3">
-        <v>44652</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>44628</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" s="5">
-        <v>109</v>
-      </c>
-      <c r="F72" s="3">
-        <v>44687</v>
-      </c>
-      <c r="G72" s="3">
-        <v>44635</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>43</v>
+      <c r="A71" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="7">
+        <v>81</v>
+      </c>
+      <c r="F71" s="8">
+        <v>44756</v>
+      </c>
+      <c r="G71" s="8">
+        <v>44693</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>44678</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="11">
+        <v>202</v>
+      </c>
+      <c r="F72" s="9">
+        <v>44736</v>
+      </c>
+      <c r="G72" s="9">
+        <v>44684</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E73" s="5">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F73" s="3">
-        <v>44627</v>
+        <v>44651</v>
       </c>
       <c r="G73" s="3">
-        <v>44642</v>
+        <v>44657</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44621</v>
+        <v>44635</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E74" s="5">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="F74" s="3">
-        <v>44682</v>
+        <v>44651</v>
       </c>
       <c r="G74" s="3">
-        <v>44621</v>
+        <v>44657</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E75" s="5">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F75" s="3">
-        <v>44669</v>
+        <v>44651</v>
       </c>
       <c r="G75" s="3">
-        <v>44607</v>
+        <v>44657</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="5">
+        <v>19</v>
+      </c>
+      <c r="F76" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G76" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="5">
+        <v>122</v>
+      </c>
+      <c r="F77" s="3">
+        <v>44712</v>
+      </c>
+      <c r="G77" s="3">
+        <v>44652</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="5">
+        <v>109</v>
+      </c>
+      <c r="F78" s="3">
+        <v>44687</v>
+      </c>
+      <c r="G78" s="3">
+        <v>44635</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="5">
+        <v>62</v>
+      </c>
+      <c r="F79" s="3">
+        <v>44627</v>
+      </c>
+      <c r="G79" s="3">
+        <v>44642</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="5">
+        <v>206</v>
+      </c>
+      <c r="F80" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G80" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>44607</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="5">
+        <v>84</v>
+      </c>
+      <c r="F81" s="3">
+        <v>44669</v>
+      </c>
+      <c r="G81" s="3">
+        <v>44607</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>44589</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E82" s="5">
         <v>178</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F82" s="3">
         <v>44647</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G82" s="3">
         <v>44589</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
         <v>44585</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E83" s="11">
         <v>80</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F83" s="9">
         <v>44572</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G83" s="9">
         <v>44585</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H83" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>44567</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E84" s="5">
         <v>348</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F84" s="3">
         <v>44633</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G84" s="3">
         <v>44567</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{56FD121F-57A4-4417-9E04-5C574EEB6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6826BA87-BEB8-4341-A53E-77390E099A84}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09A61BE-05AB-4C78-9932-7C4713CE0B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="34050" yWindow="1605" windowWidth="21600" windowHeight="12060" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="162">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>Grand Prairie</t>
+  </si>
+  <si>
+    <t>Catalent Cell Therapy</t>
+  </si>
+  <si>
+    <t>Webster</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,54 +1048,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44883</v>
+        <v>44880</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3">
-        <v>44883</v>
+        <v>44941</v>
       </c>
       <c r="G2" s="3">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3">
-        <v>44942</v>
+        <v>44883</v>
       </c>
       <c r="G3" s="3">
         <v>44883</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,25 +1103,25 @@
         <v>44881</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="G4" s="3">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,7 +1129,7 @@
         <v>44881</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>91</v>
@@ -1132,7 +1138,7 @@
         <v>92</v>
       </c>
       <c r="E5" s="5">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="F5" s="3">
         <v>44939</v>
@@ -1149,7 +1155,7 @@
         <v>44881</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -1158,7 +1164,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
         <v>44939</v>
@@ -1175,7 +1181,7 @@
         <v>44881</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>91</v>
@@ -1184,7 +1190,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
         <v>44939</v>
@@ -1198,54 +1204,54 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44845</v>
+        <v>44881</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3">
-        <v>44907</v>
+        <v>44939</v>
       </c>
       <c r="G8" s="3">
-        <v>44873</v>
+        <v>44881</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44823</v>
+        <v>44845</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="F9" s="3">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="G9" s="3">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,7 +1259,7 @@
         <v>44823</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
@@ -1262,7 +1268,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>44910</v>
@@ -1276,28 +1282,28 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44876</v>
+        <v>44823</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F11" s="3">
-        <v>44862</v>
+        <v>44910</v>
       </c>
       <c r="G11" s="3">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1305,7 +1311,7 @@
         <v>44876</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>17</v>
@@ -1314,68 +1320,68 @@
         <v>18</v>
       </c>
       <c r="E12" s="5">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3">
-        <v>44926</v>
+        <v>44862</v>
       </c>
       <c r="G12" s="3">
         <v>44876</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>83</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44926</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44876</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>44865</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="18">
         <v>50</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="16">
         <v>44928</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="16">
         <v>44867</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44861</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44866</v>
-      </c>
-      <c r="G14" s="3">
-        <v>44861</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,7 +1389,7 @@
         <v>44861</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>91</v>
@@ -1392,7 +1398,7 @@
         <v>92</v>
       </c>
       <c r="E15" s="5">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3">
         <v>44866</v>
@@ -1406,28 +1412,28 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G16" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1435,7 +1441,7 @@
         <v>44848</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
@@ -1444,7 +1450,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" s="3">
         <v>44916</v>
@@ -1461,7 +1467,7 @@
         <v>44848</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
@@ -1470,7 +1476,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>44916</v>
@@ -1487,7 +1493,7 @@
         <v>44848</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -1496,7 +1502,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
         <v>44916</v>
@@ -1513,7 +1519,7 @@
         <v>44848</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1522,7 +1528,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>44916</v>
@@ -1539,16 +1545,16 @@
         <v>44848</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>44916</v>
@@ -1557,7 +1563,7 @@
         <v>44858</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,16 +1571,16 @@
         <v>44848</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="5">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>44916</v>
@@ -1583,7 +1589,7 @@
         <v>44858</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1591,7 +1597,7 @@
         <v>44848</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>31</v>
@@ -1600,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="5">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F23" s="3">
         <v>44916</v>
@@ -1617,7 +1623,7 @@
         <v>44848</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1643,7 +1649,7 @@
         <v>44848</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -1652,7 +1658,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>44916</v>
@@ -1669,7 +1675,7 @@
         <v>44848</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1678,13 +1684,13 @@
         <v>32</v>
       </c>
       <c r="E26" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
         <v>44916</v>
       </c>
       <c r="G26" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>33</v>
@@ -1695,7 +1701,7 @@
         <v>44848</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>31</v>
@@ -1718,28 +1724,28 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="F28" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G28" s="3">
-        <v>44847</v>
+        <v>44859</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1747,7 +1753,7 @@
         <v>44847</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>17</v>
@@ -1756,7 +1762,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="5">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="F29" s="3">
         <v>44905</v>
@@ -1765,345 +1771,345 @@
         <v>44847</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E30" s="5">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F30" s="3">
-        <v>44819</v>
+        <v>44905</v>
       </c>
       <c r="G30" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E31" s="5">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F31" s="3">
-        <v>44855</v>
+        <v>44819</v>
       </c>
       <c r="G31" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
+        <v>44841</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="5">
+        <v>85</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44855</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44841</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>44835</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>43</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>44895</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>44837</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>44826</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>179</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>44826</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>44826</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H34" s="14" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>44818</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="5">
-        <v>64</v>
-      </c>
-      <c r="F34" s="3">
-        <v>44879</v>
-      </c>
-      <c r="G34" s="3">
-        <v>44818</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E35" s="5">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3">
-        <v>44883</v>
+        <v>44879</v>
       </c>
       <c r="G35" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E36" s="5">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F36" s="3">
-        <v>44811</v>
+        <v>44883</v>
       </c>
       <c r="G36" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5">
-        <v>526</v>
+        <v>53</v>
       </c>
       <c r="F37" s="3">
-        <v>44866</v>
+        <v>44811</v>
       </c>
       <c r="G37" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E38" s="5">
-        <v>57</v>
+        <v>526</v>
       </c>
       <c r="F38" s="3">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="G38" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E39" s="5">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F39" s="3">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="G39" s="3">
         <v>44802</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5">
+        <v>117</v>
+      </c>
+      <c r="F40" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>44797</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>39</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>44797</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>44804</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H41" s="14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>44797</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="5">
-        <v>55</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44833</v>
-      </c>
-      <c r="G41" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E42" s="5">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F42" s="3">
-        <v>44807</v>
+        <v>44833</v>
       </c>
       <c r="G42" s="3">
         <v>44803</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2111,7 +2117,7 @@
         <v>44796</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>31</v>
@@ -2120,7 +2126,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F43" s="3">
         <v>44807</v>
@@ -2137,7 +2143,7 @@
         <v>44796</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -2146,7 +2152,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F44" s="3">
         <v>44807</v>
@@ -2163,7 +2169,7 @@
         <v>44796</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -2172,7 +2178,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F45" s="3">
         <v>44807</v>
@@ -2189,7 +2195,7 @@
         <v>44796</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -2198,10 +2204,10 @@
         <v>32</v>
       </c>
       <c r="E46" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F46" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G46" s="3">
         <v>44803</v>
@@ -2215,7 +2221,7 @@
         <v>44796</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -2224,10 +2230,10 @@
         <v>32</v>
       </c>
       <c r="E47" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="3">
-        <v>44807</v>
+        <v>44827</v>
       </c>
       <c r="G47" s="3">
         <v>44803</v>
@@ -2238,71 +2244,71 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E48" s="5">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>44834</v>
+        <v>44807</v>
       </c>
       <c r="G48" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E49" s="5">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F49" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G49" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E50" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F50" s="3">
         <v>44835</v>
@@ -2311,111 +2317,111 @@
         <v>44783</v>
       </c>
       <c r="H50" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="15">
-        <v>116</v>
-      </c>
-      <c r="F51" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G51" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>23</v>
+      <c r="D51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="5">
+        <v>29</v>
+      </c>
+      <c r="F51" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G51" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E52" s="15">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F52" s="13">
-        <v>44867</v>
+        <v>44834</v>
       </c>
       <c r="G52" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="15">
+        <v>69</v>
+      </c>
+      <c r="F53" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G53" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
         <v>44768</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>78</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>44829</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>44770</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H54" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="5">
-        <v>64</v>
-      </c>
-      <c r="F54" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G54" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2423,16 +2429,16 @@
         <v>44767</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E55" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F55" s="3">
         <v>44762</v>
@@ -2441,7 +2447,7 @@
         <v>44767</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2449,16 +2455,16 @@
         <v>44767</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E56" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F56" s="3">
         <v>44762</v>
@@ -2467,345 +2473,345 @@
         <v>44767</v>
       </c>
       <c r="H56" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="5">
+        <v>92</v>
+      </c>
+      <c r="F57" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G57" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <v>44761</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>125</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>44804</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>44768</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H58" s="14" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="5">
-        <v>115</v>
-      </c>
-      <c r="F58" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G58" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E59" s="5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F59" s="3">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="G59" s="3">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="5">
+        <v>110</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44761</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="5">
         <v>90</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>44807</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="3">
         <v>44761</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="11">
-        <v>83</v>
-      </c>
-      <c r="F61" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G61" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="11">
+        <v>83</v>
+      </c>
+      <c r="F62" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G62" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>44747</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>45</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>44740</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>44747</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="5">
-        <v>36</v>
-      </c>
-      <c r="F63" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G63" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E64" s="5">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="F64" s="3">
-        <v>44786</v>
+        <v>44805</v>
       </c>
       <c r="G64" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E65" s="5">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="F65" s="3">
-        <v>44774</v>
+        <v>44786</v>
       </c>
       <c r="G65" s="3">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E66" s="5">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="F66" s="3">
-        <v>44736</v>
+        <v>44774</v>
       </c>
       <c r="G66" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" s="5">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="F67" s="3">
-        <v>44794</v>
+        <v>44736</v>
       </c>
       <c r="G67" s="3">
         <v>44739</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E68" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F68" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G68" s="3">
         <v>44739</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44718</v>
+        <v>44729</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E69" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F69" s="3">
-        <v>44738</v>
+        <v>44564</v>
       </c>
       <c r="G69" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2813,7 +2819,7 @@
         <v>44718</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>21</v>
@@ -2822,7 +2828,7 @@
         <v>22</v>
       </c>
       <c r="E70" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F70" s="3">
         <v>44738</v>
@@ -2835,81 +2841,81 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="A71" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="5">
+        <v>85</v>
+      </c>
+      <c r="F71" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G71" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
         <v>44693</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>81</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F72" s="8">
         <v>44756</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <v>44693</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>44678</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D73" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>202</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>44736</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="9">
         <v>44684</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H73" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="5">
-        <v>31</v>
-      </c>
-      <c r="F73" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G73" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2917,7 +2923,7 @@
         <v>44635</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>31</v>
@@ -2926,7 +2932,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F74" s="3">
         <v>44651</v>
@@ -2943,7 +2949,7 @@
         <v>44635</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>31</v>
@@ -2952,7 +2958,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F75" s="3">
         <v>44651</v>
@@ -2969,7 +2975,7 @@
         <v>44635</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>31</v>
@@ -2978,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" s="3">
         <v>44651</v>
@@ -2992,209 +2998,235 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="5">
+        <v>19</v>
+      </c>
+      <c r="F77" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G77" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>44648</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>122</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="3">
         <v>44712</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G78" s="3">
         <v>44652</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>44628</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="5">
         <v>109</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <v>44687</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <v>44635</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>44627</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>62</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="3">
         <v>44627</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G80" s="3">
         <v>44642</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>44621</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E80" s="5">
-        <v>206</v>
-      </c>
-      <c r="F80" s="3">
-        <v>44682</v>
-      </c>
-      <c r="G80" s="3">
-        <v>44621</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="5">
+        <v>206</v>
+      </c>
+      <c r="F81" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G81" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>44607</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>84</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="3">
         <v>44669</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G82" s="3">
         <v>44607</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>44589</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="5">
         <v>178</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F83" s="3">
         <v>44647</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G83" s="3">
         <v>44589</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>44585</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>80</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>44572</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G84" s="9">
         <v>44585</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H84" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>44567</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="5">
         <v>348</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F85" s="3">
         <v>44633</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G85" s="3">
         <v>44567</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09A61BE-05AB-4C78-9932-7C4713CE0B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C09A61BE-05AB-4C78-9932-7C4713CE0B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27237577-69BA-4E6A-96EE-6104AF9171F4}"/>
   <bookViews>
-    <workbookView xWindow="34050" yWindow="1605" windowWidth="21600" windowHeight="12060" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="32445" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="163">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>Webster</t>
+  </si>
+  <si>
+    <t>American General Life Insurance Company</t>
   </si>
 </sst>
 </file>
@@ -563,6 +566,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1002,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,80 +1052,80 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44880</v>
+        <v>44897</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="F2" s="3">
-        <v>44941</v>
+        <v>44958</v>
       </c>
       <c r="G2" s="3">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44883</v>
+        <v>44880</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F3" s="3">
-        <v>44883</v>
+        <v>44941</v>
       </c>
       <c r="G3" s="3">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3">
-        <v>44942</v>
+        <v>44883</v>
       </c>
       <c r="G4" s="3">
         <v>44883</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,25 +1133,25 @@
         <v>44881</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="G5" s="3">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,7 +1159,7 @@
         <v>44881</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -1164,7 +1168,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="5">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="F6" s="3">
         <v>44939</v>
@@ -1181,7 +1185,7 @@
         <v>44881</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>91</v>
@@ -1190,7 +1194,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3">
         <v>44939</v>
@@ -1207,7 +1211,7 @@
         <v>44881</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>91</v>
@@ -1216,7 +1220,7 @@
         <v>92</v>
       </c>
       <c r="E8" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3">
         <v>44939</v>
@@ -1230,54 +1234,54 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44845</v>
+        <v>44881</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3">
-        <v>44907</v>
+        <v>44939</v>
       </c>
       <c r="G9" s="3">
-        <v>44873</v>
+        <v>44881</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44823</v>
+        <v>44845</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="G10" s="3">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1285,7 +1289,7 @@
         <v>44823</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -1294,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <v>44910</v>
@@ -1308,28 +1312,28 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44876</v>
+        <v>44823</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F12" s="3">
-        <v>44862</v>
+        <v>44910</v>
       </c>
       <c r="G12" s="3">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1337,7 +1341,7 @@
         <v>44876</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1346,68 +1350,68 @@
         <v>18</v>
       </c>
       <c r="E13" s="5">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3">
-        <v>44926</v>
+        <v>44862</v>
       </c>
       <c r="G13" s="3">
         <v>44876</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44926</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44876</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>44865</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="18">
         <v>50</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>44928</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>44867</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44861</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44866</v>
-      </c>
-      <c r="G15" s="3">
-        <v>44861</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,7 +1419,7 @@
         <v>44861</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>91</v>
@@ -1424,7 +1428,7 @@
         <v>92</v>
       </c>
       <c r="E16" s="5">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3">
         <v>44866</v>
@@ -1438,28 +1442,28 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E17" s="5">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F17" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G17" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1471,7 @@
         <v>44848</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>31</v>
@@ -1476,7 +1480,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3">
         <v>44916</v>
@@ -1493,7 +1497,7 @@
         <v>44848</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -1502,7 +1506,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>44916</v>
@@ -1519,7 +1523,7 @@
         <v>44848</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1528,7 +1532,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>44916</v>
@@ -1545,7 +1549,7 @@
         <v>44848</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -1554,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>44916</v>
@@ -1571,16 +1575,16 @@
         <v>44848</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>44916</v>
@@ -1589,7 +1593,7 @@
         <v>44858</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1597,16 +1601,16 @@
         <v>44848</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="5">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>44916</v>
@@ -1615,7 +1619,7 @@
         <v>44858</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1623,7 +1627,7 @@
         <v>44848</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
@@ -1632,7 +1636,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="5">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F24" s="3">
         <v>44916</v>
@@ -1649,7 +1653,7 @@
         <v>44848</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -1675,7 +1679,7 @@
         <v>44848</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1684,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>44916</v>
@@ -1701,7 +1705,7 @@
         <v>44848</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>31</v>
@@ -1710,13 +1714,13 @@
         <v>32</v>
       </c>
       <c r="E27" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
         <v>44916</v>
       </c>
       <c r="G27" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>33</v>
@@ -1727,7 +1731,7 @@
         <v>44848</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1750,28 +1754,28 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G29" s="3">
-        <v>44847</v>
+        <v>44859</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,7 +1783,7 @@
         <v>44847</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>17</v>
@@ -1788,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="5">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="F30" s="3">
         <v>44905</v>
@@ -1797,345 +1801,345 @@
         <v>44847</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E31" s="5">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F31" s="3">
-        <v>44819</v>
+        <v>44905</v>
       </c>
       <c r="G31" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E32" s="5">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3">
-        <v>44855</v>
+        <v>44819</v>
       </c>
       <c r="G32" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
+        <v>44841</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="5">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3">
+        <v>44855</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44841</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>44835</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>43</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>44895</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
         <v>44837</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>44826</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>179</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>44826</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>44826</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>44818</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="5">
-        <v>64</v>
-      </c>
-      <c r="F35" s="3">
-        <v>44879</v>
-      </c>
-      <c r="G35" s="3">
-        <v>44818</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E36" s="5">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F36" s="3">
-        <v>44883</v>
+        <v>44879</v>
       </c>
       <c r="G36" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E37" s="5">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F37" s="3">
-        <v>44811</v>
+        <v>44883</v>
       </c>
       <c r="G37" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E38" s="5">
-        <v>526</v>
+        <v>53</v>
       </c>
       <c r="F38" s="3">
-        <v>44866</v>
+        <v>44811</v>
       </c>
       <c r="G38" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E39" s="5">
-        <v>57</v>
+        <v>526</v>
       </c>
       <c r="F39" s="3">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="G39" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E40" s="5">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F40" s="3">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="G40" s="3">
         <v>44802</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5">
+        <v>117</v>
+      </c>
+      <c r="F41" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G41" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>44797</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>39</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>44797</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>44804</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H42" s="14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>44797</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="5">
-        <v>55</v>
-      </c>
-      <c r="F42" s="3">
-        <v>44833</v>
-      </c>
-      <c r="G42" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F43" s="3">
-        <v>44807</v>
+        <v>44833</v>
       </c>
       <c r="G43" s="3">
         <v>44803</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2143,7 +2147,7 @@
         <v>44796</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -2152,7 +2156,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F44" s="3">
         <v>44807</v>
@@ -2169,7 +2173,7 @@
         <v>44796</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -2178,7 +2182,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3">
         <v>44807</v>
@@ -2195,7 +2199,7 @@
         <v>44796</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -2204,7 +2208,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F46" s="3">
         <v>44807</v>
@@ -2221,7 +2225,7 @@
         <v>44796</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -2230,10 +2234,10 @@
         <v>32</v>
       </c>
       <c r="E47" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F47" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G47" s="3">
         <v>44803</v>
@@ -2247,7 +2251,7 @@
         <v>44796</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>31</v>
@@ -2256,10 +2260,10 @@
         <v>32</v>
       </c>
       <c r="E48" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="3">
-        <v>44807</v>
+        <v>44827</v>
       </c>
       <c r="G48" s="3">
         <v>44803</v>
@@ -2270,71 +2274,71 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E49" s="5">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>44834</v>
+        <v>44807</v>
       </c>
       <c r="G49" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E50" s="5">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F50" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G50" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E51" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F51" s="3">
         <v>44835</v>
@@ -2343,111 +2347,111 @@
         <v>44783</v>
       </c>
       <c r="H51" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="15">
-        <v>116</v>
-      </c>
-      <c r="F52" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G52" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>23</v>
+      <c r="D52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="5">
+        <v>29</v>
+      </c>
+      <c r="F52" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G52" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E53" s="15">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F53" s="13">
-        <v>44867</v>
+        <v>44834</v>
       </c>
       <c r="G53" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="15">
+        <v>69</v>
+      </c>
+      <c r="F54" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G54" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
         <v>44768</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>78</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>44829</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>44770</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H55" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="5">
-        <v>64</v>
-      </c>
-      <c r="F55" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G55" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2455,16 +2459,16 @@
         <v>44767</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E56" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F56" s="3">
         <v>44762</v>
@@ -2473,7 +2477,7 @@
         <v>44767</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2481,16 +2485,16 @@
         <v>44767</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E57" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F57" s="3">
         <v>44762</v>
@@ -2499,345 +2503,345 @@
         <v>44767</v>
       </c>
       <c r="H57" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="5">
+        <v>92</v>
+      </c>
+      <c r="F58" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G58" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
         <v>44761</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>125</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>44804</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>44768</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H59" s="14" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="5">
-        <v>115</v>
-      </c>
-      <c r="F59" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G59" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E60" s="5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F60" s="3">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="G60" s="3">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="5">
+        <v>110</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>44761</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E62" s="5">
         <v>90</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="3">
         <v>44807</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G62" s="3">
         <v>44761</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="11">
-        <v>83</v>
-      </c>
-      <c r="F62" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G62" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="11">
+        <v>83</v>
+      </c>
+      <c r="F63" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G63" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>44747</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B64" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>45</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>44740</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>44747</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="5">
-        <v>36</v>
-      </c>
-      <c r="F64" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G64" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E65" s="5">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="F65" s="3">
-        <v>44786</v>
+        <v>44805</v>
       </c>
       <c r="G65" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E66" s="5">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="F66" s="3">
-        <v>44774</v>
+        <v>44786</v>
       </c>
       <c r="G66" s="3">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E67" s="5">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="F67" s="3">
-        <v>44736</v>
+        <v>44774</v>
       </c>
       <c r="G67" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" s="5">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="F68" s="3">
-        <v>44794</v>
+        <v>44736</v>
       </c>
       <c r="G68" s="3">
         <v>44739</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E69" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F69" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G69" s="3">
         <v>44739</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44718</v>
+        <v>44729</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E70" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F70" s="3">
-        <v>44738</v>
+        <v>44564</v>
       </c>
       <c r="G70" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2845,7 +2849,7 @@
         <v>44718</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>21</v>
@@ -2854,7 +2858,7 @@
         <v>22</v>
       </c>
       <c r="E71" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F71" s="3">
         <v>44738</v>
@@ -2867,81 +2871,81 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="5">
+        <v>85</v>
+      </c>
+      <c r="F72" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G72" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
         <v>44693</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="7">
         <v>81</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F73" s="8">
         <v>44756</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G73" s="8">
         <v>44693</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
         <v>44678</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>202</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>44736</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="9">
         <v>44684</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H74" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="5">
-        <v>31</v>
-      </c>
-      <c r="F74" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G74" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2949,7 +2953,7 @@
         <v>44635</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>31</v>
@@ -2958,7 +2962,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F75" s="3">
         <v>44651</v>
@@ -2975,7 +2979,7 @@
         <v>44635</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>31</v>
@@ -2984,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F76" s="3">
         <v>44651</v>
@@ -3001,7 +3005,7 @@
         <v>44635</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>31</v>
@@ -3010,7 +3014,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" s="3">
         <v>44651</v>
@@ -3024,209 +3028,235 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="5">
+        <v>19</v>
+      </c>
+      <c r="F78" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G78" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>44648</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="5">
         <v>122</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <v>44712</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <v>44652</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>44628</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>109</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="3">
         <v>44687</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G80" s="3">
         <v>44635</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>44627</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="5">
         <v>62</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="3">
         <v>44627</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G81" s="3">
         <v>44642</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>44621</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E81" s="5">
-        <v>206</v>
-      </c>
-      <c r="F81" s="3">
-        <v>44682</v>
-      </c>
-      <c r="G81" s="3">
-        <v>44621</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="5">
+        <v>206</v>
+      </c>
+      <c r="F82" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G82" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>44607</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="5">
         <v>84</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F83" s="3">
         <v>44669</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G83" s="3">
         <v>44607</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>44589</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>178</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="3">
         <v>44647</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G84" s="3">
         <v>44589</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>44585</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D85" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>80</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>44572</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G85" s="9">
         <v>44585</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H85" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>44567</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="5">
         <v>348</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F86" s="3">
         <v>44633</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G86" s="3">
         <v>44567</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2022.xlsx
+++ b/data/warn-scraper/cache/tx/2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/angela_woellner_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C09A61BE-05AB-4C78-9932-7C4713CE0B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27237577-69BA-4E6A-96EE-6104AF9171F4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C09A61BE-05AB-4C78-9932-7C4713CE0B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD787A5B-92CD-4579-A391-BCD0BD25C1A3}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{4366512B-0D39-4A78-B3C3-449078C83C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="164">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -523,13 +523,16 @@
   </si>
   <si>
     <t>American General Life Insurance Company</t>
+  </si>
+  <si>
+    <t>HII Mission Technologies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +570,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -638,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,6 +698,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5218AADC-85AA-493C-BEF4-B6CC72C57A4E}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,107 +1068,107 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44897</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="5">
-        <v>461</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44958</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44897</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>102</v>
+      <c r="A2" s="19">
+        <v>44916</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="21">
+        <v>68</v>
+      </c>
+      <c r="F2" s="19">
+        <v>44985</v>
+      </c>
+      <c r="G2" s="19">
+        <v>44916</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44880</v>
+        <v>44897</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5">
-        <v>77</v>
+        <v>461</v>
       </c>
       <c r="F3" s="3">
-        <v>44941</v>
+        <v>44958</v>
       </c>
       <c r="G3" s="3">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44883</v>
+        <v>44880</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3">
-        <v>44883</v>
+        <v>44941</v>
       </c>
       <c r="G4" s="3">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3">
-        <v>44942</v>
+        <v>44883</v>
       </c>
       <c r="G5" s="3">
         <v>44883</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,25 +1176,25 @@
         <v>44881</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="G6" s="3">
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1185,7 +1202,7 @@
         <v>44881</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>91</v>
@@ -1194,7 +1211,7 @@
         <v>92</v>
       </c>
       <c r="E7" s="5">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="F7" s="3">
         <v>44939</v>
@@ -1211,7 +1228,7 @@
         <v>44881</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>91</v>
@@ -1220,7 +1237,7 @@
         <v>92</v>
       </c>
       <c r="E8" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <v>44939</v>
@@ -1237,7 +1254,7 @@
         <v>44881</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>91</v>
@@ -1246,7 +1263,7 @@
         <v>92</v>
       </c>
       <c r="E9" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3">
         <v>44939</v>
@@ -1260,54 +1277,54 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44845</v>
+        <v>44881</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3">
-        <v>44907</v>
+        <v>44939</v>
       </c>
       <c r="G10" s="3">
-        <v>44873</v>
+        <v>44881</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44823</v>
+        <v>44845</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="F11" s="3">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="G11" s="3">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1315,7 +1332,7 @@
         <v>44823</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
@@ -1324,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="5">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3">
         <v>44910</v>
@@ -1338,28 +1355,28 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44876</v>
+        <v>44823</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3">
-        <v>44862</v>
+        <v>44910</v>
       </c>
       <c r="G13" s="3">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,7 +1384,7 @@
         <v>44876</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1376,68 +1393,68 @@
         <v>18</v>
       </c>
       <c r="E14" s="5">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3">
-        <v>44926</v>
+        <v>44862</v>
       </c>
       <c r="G14" s="3">
         <v>44876</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44876</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5">
+        <v>83</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44926</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44876</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>44865</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E16" s="18">
         <v>50</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="16">
         <v>44928</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="16">
         <v>44867</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44861</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="5">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44866</v>
-      </c>
-      <c r="G16" s="3">
-        <v>44861</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,7 +1462,7 @@
         <v>44861</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>91</v>
@@ -1454,7 +1471,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="5">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3">
         <v>44866</v>
@@ -1468,28 +1485,28 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E18" s="5">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F18" s="3">
-        <v>44916</v>
+        <v>44866</v>
       </c>
       <c r="G18" s="3">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1497,7 +1514,7 @@
         <v>44848</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -1506,7 +1523,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3">
         <v>44916</v>
@@ -1523,7 +1540,7 @@
         <v>44848</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1532,7 +1549,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>44916</v>
@@ -1549,7 +1566,7 @@
         <v>44848</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -1558,7 +1575,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <v>44916</v>
@@ -1575,7 +1592,7 @@
         <v>44848</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -1584,7 +1601,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>44916</v>
@@ -1601,16 +1618,16 @@
         <v>44848</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>44916</v>
@@ -1619,7 +1636,7 @@
         <v>44858</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,16 +1644,16 @@
         <v>44848</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="5">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>44916</v>
@@ -1645,7 +1662,7 @@
         <v>44858</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,7 +1670,7 @@
         <v>44848</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -1662,7 +1679,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="5">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F25" s="3">
         <v>44916</v>
@@ -1679,7 +1696,7 @@
         <v>44848</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1705,7 +1722,7 @@
         <v>44848</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>31</v>
@@ -1714,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
         <v>44916</v>
@@ -1731,7 +1748,7 @@
         <v>44848</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>31</v>
@@ -1740,13 +1757,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3">
         <v>44916</v>
       </c>
       <c r="G28" s="3">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>33</v>
@@ -1757,7 +1774,7 @@
         <v>44848</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>31</v>
@@ -1780,28 +1797,28 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="F30" s="3">
-        <v>44905</v>
+        <v>44916</v>
       </c>
       <c r="G30" s="3">
-        <v>44847</v>
+        <v>44859</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,7 +1826,7 @@
         <v>44847</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>17</v>
@@ -1818,7 +1835,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="5">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="F31" s="3">
         <v>44905</v>
@@ -1827,345 +1844,345 @@
         <v>44847</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E32" s="5">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F32" s="3">
-        <v>44819</v>
+        <v>44905</v>
       </c>
       <c r="G32" s="3">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E33" s="5">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F33" s="3">
-        <v>44855</v>
+        <v>44819</v>
       </c>
       <c r="G33" s="3">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
+        <v>44841</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="5">
+        <v>85</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44855</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44841</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>44835</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>43</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>44895</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>44837</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>44826</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>179</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>44826</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>44826</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H36" s="14" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>44818</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="5">
-        <v>64</v>
-      </c>
-      <c r="F36" s="3">
-        <v>44879</v>
-      </c>
-      <c r="G36" s="3">
-        <v>44818</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E37" s="5">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F37" s="3">
-        <v>44883</v>
+        <v>44879</v>
       </c>
       <c r="G37" s="3">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E38" s="5">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F38" s="3">
-        <v>44811</v>
+        <v>44883</v>
       </c>
       <c r="G38" s="3">
-        <v>44813</v>
+        <v>44817</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E39" s="5">
-        <v>526</v>
+        <v>53</v>
       </c>
       <c r="F39" s="3">
-        <v>44866</v>
+        <v>44811</v>
       </c>
       <c r="G39" s="3">
-        <v>44804</v>
+        <v>44813</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E40" s="5">
-        <v>57</v>
+        <v>526</v>
       </c>
       <c r="F40" s="3">
-        <v>44862</v>
+        <v>44866</v>
       </c>
       <c r="G40" s="3">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E41" s="5">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F41" s="3">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="G41" s="3">
         <v>44802</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5">
+        <v>117</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44859</v>
+      </c>
+      <c r="G42" s="3">
+        <v>44802</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>44797</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>39</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>44797</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>44804</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H43" s="14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>44797</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="5">
-        <v>55</v>
-      </c>
-      <c r="F43" s="3">
-        <v>44833</v>
-      </c>
-      <c r="G43" s="3">
-        <v>44803</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E44" s="5">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F44" s="3">
-        <v>44807</v>
+        <v>44833</v>
       </c>
       <c r="G44" s="3">
         <v>44803</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,7 +2190,7 @@
         <v>44796</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -2182,7 +2199,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F45" s="3">
         <v>44807</v>
@@ -2199,7 +2216,7 @@
         <v>44796</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -2208,7 +2225,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F46" s="3">
         <v>44807</v>
@@ -2225,7 +2242,7 @@
         <v>44796</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -2234,7 +2251,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F47" s="3">
         <v>44807</v>
@@ -2251,7 +2268,7 @@
         <v>44796</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>31</v>
@@ -2260,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="E48" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F48" s="3">
-        <v>44827</v>
+        <v>44807</v>
       </c>
       <c r="G48" s="3">
         <v>44803</v>
@@ -2277,7 +2294,7 @@
         <v>44796</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>31</v>
@@ -2286,10 +2303,10 @@
         <v>32</v>
       </c>
       <c r="E49" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" s="3">
-        <v>44807</v>
+        <v>44827</v>
       </c>
       <c r="G49" s="3">
         <v>44803</v>
@@ -2300,71 +2317,71 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44792</v>
+        <v>44796</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E50" s="5">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="F50" s="3">
-        <v>44834</v>
+        <v>44807</v>
       </c>
       <c r="G50" s="3">
-        <v>44792</v>
+        <v>44803</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E51" s="5">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F51" s="3">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="G51" s="3">
-        <v>44783</v>
+        <v>44792</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E52" s="5">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F52" s="3">
         <v>44835</v>
@@ -2373,111 +2390,111 @@
         <v>44783</v>
       </c>
       <c r="H52" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>44770</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="15">
-        <v>116</v>
-      </c>
-      <c r="F53" s="13">
-        <v>44834</v>
-      </c>
-      <c r="G53" s="13">
-        <v>44770</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>23</v>
+      <c r="D53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="5">
+        <v>29</v>
+      </c>
+      <c r="F53" s="3">
+        <v>44835</v>
+      </c>
+      <c r="G53" s="3">
+        <v>44783</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E54" s="15">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F54" s="13">
-        <v>44867</v>
+        <v>44834</v>
       </c>
       <c r="G54" s="13">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
+        <v>44769</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="15">
+        <v>69</v>
+      </c>
+      <c r="F55" s="13">
+        <v>44867</v>
+      </c>
+      <c r="G55" s="13">
+        <v>44769</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
         <v>44768</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>78</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>44829</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>44770</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H56" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>44767</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="5">
-        <v>64</v>
-      </c>
-      <c r="F56" s="3">
-        <v>44762</v>
-      </c>
-      <c r="G56" s="3">
-        <v>44767</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2485,16 +2502,16 @@
         <v>44767</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E57" s="5">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F57" s="3">
         <v>44762</v>
@@ -2503,7 +2520,7 @@
         <v>44767</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2511,16 +2528,16 @@
         <v>44767</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E58" s="5">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F58" s="3">
         <v>44762</v>
@@ -2529,345 +2546,345 @@
         <v>44767</v>
       </c>
       <c r="H58" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="5">
+        <v>92</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44762</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44767</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <v>44761</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>125</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>44804</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>44768</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H60" s="14" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>44761</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E60" s="5">
-        <v>115</v>
-      </c>
-      <c r="F60" s="3">
-        <v>44822</v>
-      </c>
-      <c r="G60" s="3">
-        <v>44763</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E61" s="5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F61" s="3">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="G61" s="3">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
+        <v>44762</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="5">
+        <v>110</v>
+      </c>
+      <c r="F62" s="3">
+        <v>44824</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44762</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>44761</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E63" s="5">
         <v>90</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F63" s="3">
         <v>44807</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G63" s="3">
         <v>44761</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>44748</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="11">
-        <v>83</v>
-      </c>
-      <c r="F63" s="9">
-        <v>44812</v>
-      </c>
-      <c r="G63" s="9">
-        <v>44755</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
+        <v>44748</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="11">
+        <v>83</v>
+      </c>
+      <c r="F64" s="9">
+        <v>44812</v>
+      </c>
+      <c r="G64" s="9">
+        <v>44755</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>44747</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>45</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>44740</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>44747</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>44743</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="5">
-        <v>36</v>
-      </c>
-      <c r="F65" s="3">
-        <v>44805</v>
-      </c>
-      <c r="G65" s="3">
-        <v>44743</v>
-      </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E66" s="5">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="F66" s="3">
-        <v>44786</v>
+        <v>44805</v>
       </c>
       <c r="G66" s="3">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44740</v>
+        <v>44742</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E67" s="5">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="F67" s="3">
-        <v>44774</v>
+        <v>44786</v>
       </c>
       <c r="G67" s="3">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>44736</v>
+        <v>44740</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E68" s="5">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="F68" s="3">
-        <v>44736</v>
+        <v>44774</v>
       </c>
       <c r="G68" s="3">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" s="5">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="F69" s="3">
-        <v>44794</v>
+        <v>44736</v>
       </c>
       <c r="G69" s="3">
         <v>44739</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E70" s="5">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F70" s="3">
-        <v>44564</v>
+        <v>44794</v>
       </c>
       <c r="G70" s="3">
         <v>44739</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44718</v>
+        <v>44729</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E71" s="5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F71" s="3">
-        <v>44738</v>
+        <v>44564</v>
       </c>
       <c r="G71" s="3">
-        <v>44720</v>
+        <v>44739</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2875,7 +2892,7 @@
         <v>44718</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>21</v>
@@ -2884,7 +2901,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="5">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F72" s="3">
         <v>44738</v>
@@ -2897,81 +2914,81 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="3">
+        <v>44718</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="5">
+        <v>85</v>
+      </c>
+      <c r="F73" s="3">
+        <v>44738</v>
+      </c>
+      <c r="G73" s="3">
+        <v>44720</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
         <v>44693</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>81</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>44756</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>44693</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
         <v>44678</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D75" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>202</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>44736</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>44684</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H75" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>44635</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="5">
-        <v>31</v>
-      </c>
-      <c r="F75" s="3">
-        <v>44651</v>
-      </c>
-      <c r="G75" s="3">
-        <v>44657</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2979,7 +2996,7 @@
         <v>44635</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>31</v>
@@ -2988,7 +3005,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="5">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F76" s="3">
         <v>44651</v>
@@ -3005,7 +3022,7 @@
         <v>44635</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>31</v>
@@ -3014,7 +3031,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F77" s="3">
         <v>44651</v>
@@ -3031,7 +3048,7 @@
         <v>44635</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>31</v>
@@ -3040,7 +3057,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="3">
         <v>44651</v>
@@ -3054,209 +3071,235 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="5">
+        <v>19</v>
+      </c>
+      <c r="F79" s="3">
+        <v>44651</v>
+      </c>
+      <c r="G79" s="3">
+        <v>44657</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>44648</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>122</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="3">
         <v>44712</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G80" s="3">
         <v>44652</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>44628</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="5">
         <v>109</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="3">
         <v>44687</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G81" s="3">
         <v>44635</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>44627</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>62</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="3">
         <v>44627</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G82" s="3">
         <v>44642</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>44621</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="5">
-        <v>206</v>
-      </c>
-      <c r="F82" s="3">
-        <v>44682</v>
-      </c>
-      <c r="G82" s="3">
-        <v>44621</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="5">
+        <v>206</v>
+      </c>
+      <c r="F83" s="3">
+        <v>44682</v>
+      </c>
+      <c r="G83" s="3">
+        <v>44621</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>44607</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>84</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="3">
         <v>44669</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G84" s="3">
         <v>44607</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>44589</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="5">
         <v>178</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F85" s="3">
         <v>44647</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G85" s="3">
         <v>44589</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>44585</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>80</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>44572</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>44585</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H86" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>44567</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="5">
         <v>348</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F87" s="3">
         <v>44633</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G87" s="3">
         <v>44567</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>62</v>
       </c>
     </row>
